--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Pathalia Khal/Pathalia_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Pathalia Khal/Pathalia_khal_Dataprep_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="162">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>KhalName</t>
-  </si>
-  <si>
-    <t>Ouftfall</t>
   </si>
   <si>
     <t>long_slope</t>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>29/11/2024</t>
-  </si>
-  <si>
-    <t>SW_HMP_01</t>
   </si>
   <si>
     <t>Data</t>
@@ -431,16 +425,7 @@
     <t>Fisheries</t>
   </si>
   <si>
-    <t>Pathalia khal</t>
-  </si>
-  <si>
-    <t>PTK</t>
-  </si>
-  <si>
     <t>Re-excavation of Char Pathalia Khal from km. 0.000 to km. 2.525 in polder -1  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
-  </si>
-  <si>
-    <t>Char Pathalia  khal</t>
   </si>
   <si>
     <t>CPK2</t>
@@ -519,6 +504,33 @@
   </si>
   <si>
     <t>CPK25</t>
+  </si>
+  <si>
+    <t>CPK</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>TP_KEX_10_14</t>
+  </si>
+  <si>
+    <t>package_name_of_khal</t>
+  </si>
+  <si>
+    <t>Data written vertically</t>
+  </si>
+  <si>
+    <t>Long_Slope_Direction</t>
+  </si>
+  <si>
+    <t>1:zero chaiange at outfall 0:zero chainage at origin</t>
+  </si>
+  <si>
+    <t>Char Pathalia  Khal</t>
+  </si>
+  <si>
+    <t>Ouftfall</t>
   </si>
 </sst>
 </file>
@@ -711,7 +723,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -901,10 +913,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1199,11 +1214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216550400"/>
-        <c:axId val="216556288"/>
+        <c:axId val="150238720"/>
+        <c:axId val="150240256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216550400"/>
+        <c:axId val="150238720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1249,12 +1264,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216556288"/>
+        <c:crossAx val="150240256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216556288"/>
+        <c:axId val="150240256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216550400"/>
+        <c:crossAx val="150238720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1619,11 +1634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237003520"/>
-        <c:axId val="237005056"/>
+        <c:axId val="151481344"/>
+        <c:axId val="151487232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237003520"/>
+        <c:axId val="151481344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1669,12 +1684,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237005056"/>
+        <c:crossAx val="151487232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237005056"/>
+        <c:axId val="151487232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,7 +1734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237003520"/>
+        <c:crossAx val="151481344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2021,11 +2036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237018112"/>
-        <c:axId val="237024000"/>
+        <c:axId val="151508480"/>
+        <c:axId val="151510016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237018112"/>
+        <c:axId val="151508480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2071,12 +2086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237024000"/>
+        <c:crossAx val="151510016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237024000"/>
+        <c:axId val="151510016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237018112"/>
+        <c:crossAx val="151508480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2411,11 +2426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237069824"/>
-        <c:axId val="237071360"/>
+        <c:axId val="151556096"/>
+        <c:axId val="151557632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237069824"/>
+        <c:axId val="151556096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2461,12 +2476,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237071360"/>
+        <c:crossAx val="151557632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237071360"/>
+        <c:axId val="151557632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237069824"/>
+        <c:crossAx val="151556096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2819,11 +2834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237174784"/>
-        <c:axId val="237176320"/>
+        <c:axId val="151578880"/>
+        <c:axId val="151601152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237174784"/>
+        <c:axId val="151578880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2869,12 +2884,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237176320"/>
+        <c:crossAx val="151601152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237176320"/>
+        <c:axId val="151601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,7 +2934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237174784"/>
+        <c:crossAx val="151578880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3197,11 +3212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237205760"/>
-        <c:axId val="237211648"/>
+        <c:axId val="151630592"/>
+        <c:axId val="151632128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237205760"/>
+        <c:axId val="151630592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3247,12 +3262,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237211648"/>
+        <c:crossAx val="151632128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237211648"/>
+        <c:axId val="151632128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,7 +3312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237205760"/>
+        <c:crossAx val="151630592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3617,11 +3632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237228800"/>
-        <c:axId val="237230336"/>
+        <c:axId val="151718912"/>
+        <c:axId val="151720704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237228800"/>
+        <c:axId val="151718912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3667,12 +3682,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237230336"/>
+        <c:crossAx val="151720704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237230336"/>
+        <c:axId val="151720704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237228800"/>
+        <c:crossAx val="151718912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4055,11 +4070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237280256"/>
-        <c:axId val="237286144"/>
+        <c:axId val="151774720"/>
+        <c:axId val="151776256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237280256"/>
+        <c:axId val="151774720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4105,12 +4120,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237286144"/>
+        <c:crossAx val="151776256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237286144"/>
+        <c:axId val="151776256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,7 +4170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237280256"/>
+        <c:crossAx val="151774720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4487,11 +4502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237315584"/>
-        <c:axId val="237317120"/>
+        <c:axId val="151789568"/>
+        <c:axId val="151791104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237315584"/>
+        <c:axId val="151789568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4537,12 +4552,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237317120"/>
+        <c:crossAx val="151791104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237317120"/>
+        <c:axId val="151791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237315584"/>
+        <c:crossAx val="151789568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4913,11 +4928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237351296"/>
-        <c:axId val="237352832"/>
+        <c:axId val="151849216"/>
+        <c:axId val="151855104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237351296"/>
+        <c:axId val="151849216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4963,12 +4978,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237352832"/>
+        <c:crossAx val="151855104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237352832"/>
+        <c:axId val="151855104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5013,7 +5028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237351296"/>
+        <c:crossAx val="151849216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5321,11 +5336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236739200"/>
-        <c:axId val="236740992"/>
+        <c:axId val="151884544"/>
+        <c:axId val="151886080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236739200"/>
+        <c:axId val="151884544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5371,12 +5386,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236740992"/>
+        <c:crossAx val="151886080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236740992"/>
+        <c:axId val="151886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,7 +5436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236739200"/>
+        <c:crossAx val="151884544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5711,11 +5726,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216573440"/>
-        <c:axId val="216574976"/>
+        <c:axId val="151064576"/>
+        <c:axId val="151066112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216573440"/>
+        <c:axId val="151064576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5761,12 +5776,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216574976"/>
+        <c:crossAx val="151066112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216574976"/>
+        <c:axId val="151066112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,7 +5826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216573440"/>
+        <c:crossAx val="151064576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6125,11 +6140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236766336"/>
-        <c:axId val="236767872"/>
+        <c:axId val="151981056"/>
+        <c:axId val="151986944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236766336"/>
+        <c:axId val="151981056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6175,12 +6190,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236767872"/>
+        <c:crossAx val="151986944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236767872"/>
+        <c:axId val="151986944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6225,7 +6240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236766336"/>
+        <c:crossAx val="151981056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6515,11 +6530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236802048"/>
-        <c:axId val="236803584"/>
+        <c:axId val="152004480"/>
+        <c:axId val="152006016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236802048"/>
+        <c:axId val="152004480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6565,12 +6580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236803584"/>
+        <c:crossAx val="152006016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236803584"/>
+        <c:axId val="152006016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6615,7 +6630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236802048"/>
+        <c:crossAx val="152004480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6905,11 +6920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236824832"/>
-        <c:axId val="236834816"/>
+        <c:axId val="152060288"/>
+        <c:axId val="152061824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236824832"/>
+        <c:axId val="152060288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6955,12 +6970,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236834816"/>
+        <c:crossAx val="152061824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236834816"/>
+        <c:axId val="152061824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,7 +7020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236824832"/>
+        <c:crossAx val="152060288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7301,11 +7316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237667072"/>
-        <c:axId val="237668608"/>
+        <c:axId val="152095360"/>
+        <c:axId val="152097152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237667072"/>
+        <c:axId val="152095360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7351,12 +7366,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237668608"/>
+        <c:crossAx val="152097152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237668608"/>
+        <c:axId val="152097152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7401,7 +7416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237667072"/>
+        <c:crossAx val="152095360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7703,11 +7718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237693952"/>
-        <c:axId val="237703936"/>
+        <c:axId val="152142976"/>
+        <c:axId val="152144512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237693952"/>
+        <c:axId val="152142976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7753,12 +7768,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237703936"/>
+        <c:crossAx val="152144512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237703936"/>
+        <c:axId val="152144512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7803,7 +7818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237693952"/>
+        <c:crossAx val="152142976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8105,11 +8120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237732992"/>
-        <c:axId val="237734528"/>
+        <c:axId val="152153088"/>
+        <c:axId val="152175360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237732992"/>
+        <c:axId val="152153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8155,12 +8170,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237734528"/>
+        <c:crossAx val="152175360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237734528"/>
+        <c:axId val="152175360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8205,7 +8220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237732992"/>
+        <c:crossAx val="152153088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8567,11 +8582,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237756800"/>
-        <c:axId val="237758336"/>
+        <c:axId val="152205568"/>
+        <c:axId val="152211456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237756800"/>
+        <c:axId val="152205568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8617,12 +8632,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237758336"/>
+        <c:crossAx val="152211456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237758336"/>
+        <c:axId val="152211456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8667,7 +8682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237756800"/>
+        <c:crossAx val="152205568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8951,11 +8966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236351488"/>
-        <c:axId val="236353024"/>
+        <c:axId val="151083264"/>
+        <c:axId val="151089152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236351488"/>
+        <c:axId val="151083264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9001,12 +9016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236353024"/>
+        <c:crossAx val="151089152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236353024"/>
+        <c:axId val="151089152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9051,7 +9066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236351488"/>
+        <c:crossAx val="151083264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9371,11 +9386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236378368"/>
-        <c:axId val="236384256"/>
+        <c:axId val="151122688"/>
+        <c:axId val="151124224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236378368"/>
+        <c:axId val="151122688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9421,12 +9436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236384256"/>
+        <c:crossAx val="151124224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236384256"/>
+        <c:axId val="151124224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9471,7 +9486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236378368"/>
+        <c:crossAx val="151122688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9755,11 +9770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236425984"/>
-        <c:axId val="236427520"/>
+        <c:axId val="151145472"/>
+        <c:axId val="151175936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236425984"/>
+        <c:axId val="151145472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9805,12 +9820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236427520"/>
+        <c:crossAx val="151175936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236427520"/>
+        <c:axId val="151175936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9855,7 +9870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236425984"/>
+        <c:crossAx val="151145472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10145,11 +10160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236440576"/>
-        <c:axId val="236446464"/>
+        <c:axId val="151262720"/>
+        <c:axId val="151264256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236440576"/>
+        <c:axId val="151262720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10195,12 +10210,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236446464"/>
+        <c:crossAx val="151264256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236446464"/>
+        <c:axId val="151264256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10245,7 +10260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236440576"/>
+        <c:crossAx val="151262720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10571,11 +10586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236488192"/>
-        <c:axId val="236489728"/>
+        <c:axId val="151298048"/>
+        <c:axId val="151299584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236488192"/>
+        <c:axId val="151298048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10621,12 +10636,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236489728"/>
+        <c:crossAx val="151299584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236489728"/>
+        <c:axId val="151299584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10671,7 +10686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236488192"/>
+        <c:crossAx val="151298048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10961,11 +10976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236933120"/>
-        <c:axId val="236934656"/>
+        <c:axId val="151337216"/>
+        <c:axId val="151339008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236933120"/>
+        <c:axId val="151337216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11011,12 +11026,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236934656"/>
+        <c:crossAx val="151339008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236934656"/>
+        <c:axId val="151339008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11061,7 +11076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236933120"/>
+        <c:crossAx val="151337216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11333,11 +11348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236947712"/>
-        <c:axId val="236957696"/>
+        <c:axId val="151458560"/>
+        <c:axId val="151460096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236947712"/>
+        <c:axId val="151458560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11383,12 +11398,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236957696"/>
+        <c:crossAx val="151460096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236957696"/>
+        <c:axId val="151460096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11433,7 +11448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236947712"/>
+        <c:crossAx val="151458560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17285,7 +17300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3120"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A247" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A17" activeCellId="1" sqref="A5:XFD5 A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -17687,26 +17702,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="A1" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
@@ -17736,7 +17751,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="50">
@@ -17754,7 +17769,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -17762,7 +17777,7 @@
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="H4" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
@@ -17780,7 +17795,7 @@
         <v>1.8089999999999999</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -17840,7 +17855,7 @@
         <v>1.798</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="50">
         <f t="shared" ref="D7:D17" si="0">(B6+B7)/2</f>
@@ -18025,7 +18040,7 @@
         <v>-0.497</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="50">
         <f t="shared" si="0"/>
@@ -18210,7 +18225,7 @@
         <v>1.4890000000000001</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="50">
         <f t="shared" si="0"/>
@@ -18276,7 +18291,7 @@
         <v>1.51</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="50">
         <f t="shared" si="0"/>
@@ -18339,13 +18354,13 @@
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="73">
+      <c r="C20" s="75">
         <v>0.1</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="75"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
@@ -18356,7 +18371,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -18364,10 +18379,10 @@
       <c r="E21" s="74"/>
       <c r="F21" s="74"/>
       <c r="G21" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
@@ -18385,7 +18400,7 @@
         <v>2.911</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -18409,7 +18424,7 @@
         <v>2.9060000000000001</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="50">
         <f>(B22+B23)/2</f>
@@ -18585,7 +18600,7 @@
         <v>-0.13900000000000001</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="50">
         <f t="shared" si="8"/>
@@ -18770,7 +18785,7 @@
         <v>3.1389999999999998</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="50">
         <f t="shared" si="8"/>
@@ -18836,7 +18851,7 @@
         <v>3.16</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="50">
         <f t="shared" si="8"/>
@@ -18882,13 +18897,13 @@
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="73">
+      <c r="C35" s="75">
         <v>0.2</v>
       </c>
-      <c r="D35" s="73"/>
+      <c r="D35" s="75"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
@@ -18902,7 +18917,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="74"/>
       <c r="C36" s="74"/>
@@ -18910,10 +18925,10 @@
       <c r="E36" s="74"/>
       <c r="F36" s="74"/>
       <c r="G36" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H36" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I36" s="74"/>
       <c r="J36" s="74"/>
@@ -18931,7 +18946,7 @@
         <v>3.47</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
@@ -18955,7 +18970,7 @@
         <v>3.4550000000000001</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="50">
         <f>(B37+B38)/2</f>
@@ -18989,7 +19004,7 @@
         <v>3.5</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="50">
         <f t="shared" ref="D39:D48" si="14">(B38+B39)/2</f>
@@ -19119,7 +19134,7 @@
         <v>-0.56000000000000005</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="50">
         <f t="shared" si="14"/>
@@ -19293,7 +19308,7 @@
         <v>3.2789999999999999</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="50">
         <f t="shared" si="14"/>
@@ -19342,7 +19357,7 @@
         <v>3.2930000000000001</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="50">
         <f t="shared" si="14"/>
@@ -19417,13 +19432,13 @@
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" s="46"/>
-      <c r="C50" s="73">
+      <c r="C50" s="75">
         <v>0.3</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="75"/>
       <c r="I50" s="43"/>
       <c r="J50" s="43"/>
       <c r="K50" s="43"/>
@@ -19437,7 +19452,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
@@ -19445,10 +19460,10 @@
       <c r="E51" s="74"/>
       <c r="F51" s="74"/>
       <c r="G51" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H51" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I51" s="74"/>
       <c r="J51" s="74"/>
@@ -19466,7 +19481,7 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -19554,7 +19569,7 @@
         <v>3.302</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="50">
         <f t="shared" si="22"/>
@@ -19588,7 +19603,7 @@
         <v>3.1960000000000002</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="50">
         <f t="shared" si="22"/>
@@ -19735,7 +19750,7 @@
         <v>-0.01</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="50">
         <f t="shared" si="22"/>
@@ -19918,7 +19933,7 @@
         <v>2.9910000000000001</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="50">
         <f t="shared" si="22"/>
@@ -19966,7 +19981,7 @@
         <v>2.9969999999999999</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="50">
         <f t="shared" si="22"/>
@@ -20128,13 +20143,13 @@
     </row>
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="46"/>
-      <c r="C71" s="73">
+      <c r="C71" s="75">
         <v>0.4</v>
       </c>
-      <c r="D71" s="73"/>
+      <c r="D71" s="75"/>
       <c r="I71" s="43"/>
       <c r="J71" s="43"/>
       <c r="K71" s="43"/>
@@ -20145,7 +20160,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B72" s="74"/>
       <c r="C72" s="74"/>
@@ -20153,10 +20168,10 @@
       <c r="E72" s="74"/>
       <c r="F72" s="74"/>
       <c r="G72" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H72" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I72" s="74"/>
       <c r="J72" s="74"/>
@@ -20177,7 +20192,7 @@
         <v>2.9350000000000001</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D73" s="53"/>
       <c r="E73" s="53"/>
@@ -20250,7 +20265,7 @@
         <v>2.9590000000000001</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" s="50">
         <f t="shared" ref="D75:D84" si="33">(B74+B75)/2</f>
@@ -20437,7 +20452,7 @@
         <v>-0.121</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="50">
         <f t="shared" si="33"/>
@@ -20594,7 +20609,7 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" s="50">
         <f t="shared" si="33"/>
@@ -20628,7 +20643,7 @@
         <v>2.8380000000000001</v>
       </c>
       <c r="C84" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D84" s="50">
         <f t="shared" si="33"/>
@@ -20679,16 +20694,16 @@
       <c r="D86" s="43"/>
       <c r="E86" s="53"/>
       <c r="F86" s="50"/>
-      <c r="G86" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H86" s="75"/>
+      <c r="G86" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" s="76"/>
       <c r="I86" s="50" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J86" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K86" s="53" t="e">
         <f>#REF!</f>
@@ -20704,13 +20719,13 @@
     </row>
     <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B87" s="46"/>
-      <c r="C87" s="73">
+      <c r="C87" s="75">
         <v>0.5</v>
       </c>
-      <c r="D87" s="73"/>
+      <c r="D87" s="75"/>
       <c r="I87" s="43"/>
       <c r="J87" s="43"/>
       <c r="K87" s="43"/>
@@ -20721,7 +20736,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" s="74"/>
       <c r="C88" s="74"/>
@@ -20729,10 +20744,10 @@
       <c r="E88" s="74"/>
       <c r="F88" s="74"/>
       <c r="G88" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H88" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I88" s="74"/>
       <c r="J88" s="74"/>
@@ -20753,7 +20768,7 @@
         <v>3.7639999999999998</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D89" s="53"/>
       <c r="E89" s="53"/>
@@ -20777,7 +20792,7 @@
         <v>3.7589999999999999</v>
       </c>
       <c r="C90" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" s="50">
         <f>(B89+B90)/2</f>
@@ -20911,7 +20926,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94" s="50">
         <f t="shared" si="36"/>
@@ -21098,7 +21113,7 @@
         <v>3.1040000000000001</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98" s="50">
         <f t="shared" si="36"/>
@@ -21191,7 +21206,7 @@
         <v>3.121</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D100" s="50">
         <f t="shared" si="36"/>
@@ -21260,16 +21275,16 @@
       <c r="D102" s="43"/>
       <c r="E102" s="53"/>
       <c r="F102" s="50"/>
-      <c r="G102" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H102" s="75"/>
+      <c r="G102" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" s="76"/>
       <c r="I102" s="50">
         <f>F101</f>
         <v>54.440499999999993</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K102" s="53" t="e">
         <f>#REF!</f>
@@ -21285,13 +21300,13 @@
     </row>
     <row r="103" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B103" s="46"/>
-      <c r="C103" s="73">
+      <c r="C103" s="75">
         <v>0.6</v>
       </c>
-      <c r="D103" s="73"/>
+      <c r="D103" s="75"/>
       <c r="I103" s="43"/>
       <c r="J103" s="43"/>
       <c r="K103" s="43"/>
@@ -21302,7 +21317,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="74"/>
       <c r="C104" s="74"/>
@@ -21310,10 +21325,10 @@
       <c r="E104" s="74"/>
       <c r="F104" s="74"/>
       <c r="G104" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H104" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I104" s="74"/>
       <c r="J104" s="74"/>
@@ -21334,7 +21349,7 @@
         <v>1.9730000000000001</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D105" s="53"/>
       <c r="E105" s="53"/>
@@ -21407,7 +21422,7 @@
         <v>4.2210000000000001</v>
       </c>
       <c r="C107" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D107" s="50">
         <f t="shared" ref="D107:D120" si="47">(B106+B107)/2</f>
@@ -21454,7 +21469,7 @@
         <v>4.21</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D108" s="50">
         <f t="shared" si="47"/>
@@ -21641,7 +21656,7 @@
         <v>0.1</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="50">
         <f t="shared" si="47"/>
@@ -21824,7 +21839,7 @@
         <v>3.5960000000000001</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116" s="50">
         <f t="shared" si="47"/>
@@ -21951,7 +21966,7 @@
         <v>2.3969999999999998</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D120" s="50">
         <f t="shared" si="47"/>
@@ -21982,16 +21997,16 @@
       <c r="D121" s="43"/>
       <c r="E121" s="53"/>
       <c r="F121" s="50"/>
-      <c r="G121" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H121" s="75"/>
+      <c r="G121" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" s="76"/>
       <c r="I121" s="50" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J121" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K121" s="53" t="e">
         <f>#REF!</f>
@@ -22007,13 +22022,13 @@
     </row>
     <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B122" s="46"/>
-      <c r="C122" s="73">
+      <c r="C122" s="75">
         <v>0.7</v>
       </c>
-      <c r="D122" s="73"/>
+      <c r="D122" s="75"/>
       <c r="I122" s="43"/>
       <c r="J122" s="43"/>
       <c r="K122" s="43"/>
@@ -22024,7 +22039,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B123" s="74"/>
       <c r="C123" s="74"/>
@@ -22032,10 +22047,10 @@
       <c r="E123" s="74"/>
       <c r="F123" s="74"/>
       <c r="G123" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H123" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I123" s="74"/>
       <c r="J123" s="74"/>
@@ -22056,7 +22071,7 @@
         <v>3.532</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D124" s="53"/>
       <c r="E124" s="53"/>
@@ -22112,7 +22127,7 @@
         <v>3.6859999999999999</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126" s="50">
         <f t="shared" ref="D126:D135" si="52">(B125+B126)/2</f>
@@ -22242,7 +22257,7 @@
         <v>-0.22700000000000001</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D130" s="50">
         <f t="shared" si="52"/>
@@ -22416,7 +22431,7 @@
         <v>2.7429999999999999</v>
       </c>
       <c r="C134" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D134" s="50">
         <f t="shared" si="52"/>
@@ -22465,7 +22480,7 @@
         <v>2.7570000000000001</v>
       </c>
       <c r="C135" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D135" s="50">
         <f t="shared" si="52"/>
@@ -22638,13 +22653,13 @@
     </row>
     <row r="142" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B142" s="46"/>
-      <c r="C142" s="73">
+      <c r="C142" s="75">
         <v>0.8</v>
       </c>
-      <c r="D142" s="73"/>
+      <c r="D142" s="75"/>
       <c r="I142" s="43"/>
       <c r="J142" s="43"/>
       <c r="K142" s="43"/>
@@ -22655,7 +22670,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B143" s="74"/>
       <c r="C143" s="74"/>
@@ -22663,10 +22678,10 @@
       <c r="E143" s="74"/>
       <c r="F143" s="74"/>
       <c r="G143" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H143" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I143" s="74"/>
       <c r="J143" s="74"/>
@@ -22687,7 +22702,7 @@
         <v>3.6859999999999999</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D144" s="53"/>
       <c r="E144" s="53"/>
@@ -22711,7 +22726,7 @@
         <v>3.726</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" s="50">
         <f>(B144+B145)/2</f>
@@ -22841,7 +22856,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D149" s="50">
         <f t="shared" si="60"/>
@@ -22988,7 +23003,7 @@
         <v>3.0339999999999998</v>
       </c>
       <c r="C153" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" s="50">
         <f t="shared" si="60"/>
@@ -23083,7 +23098,7 @@
         <v>3.056</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D155" s="50">
         <f t="shared" si="60"/>
@@ -23131,16 +23146,16 @@
       <c r="D156" s="43"/>
       <c r="E156" s="53"/>
       <c r="F156" s="50"/>
-      <c r="G156" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H156" s="75"/>
+      <c r="G156" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" s="76"/>
       <c r="I156" s="50" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J156" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K156" s="53" t="e">
         <f>#REF!</f>
@@ -23157,13 +23172,13 @@
     <row r="157" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="43"/>
       <c r="B157" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C157" s="46"/>
-      <c r="D157" s="73">
+      <c r="D157" s="75">
         <v>0.9</v>
       </c>
-      <c r="E157" s="73"/>
+      <c r="E157" s="75"/>
       <c r="I157" s="43"/>
       <c r="J157" s="43"/>
       <c r="K157" s="43"/>
@@ -23174,7 +23189,7 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B158" s="74"/>
       <c r="C158" s="74"/>
@@ -23182,10 +23197,10 @@
       <c r="E158" s="74"/>
       <c r="F158" s="74"/>
       <c r="G158" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H158" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I158" s="74"/>
       <c r="J158" s="74"/>
@@ -23206,7 +23221,7 @@
         <v>3.1419999999999999</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D159" s="53"/>
       <c r="E159" s="53"/>
@@ -23230,7 +23245,7 @@
         <v>3.214</v>
       </c>
       <c r="C160" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D160" s="50">
         <f>(B159+B160)/2</f>
@@ -23392,7 +23407,7 @@
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="C165" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D165" s="50">
         <f t="shared" si="66"/>
@@ -23611,7 +23626,7 @@
         <v>2.7869999999999999</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D170" s="50">
         <f t="shared" si="66"/>
@@ -23751,7 +23766,7 @@
         <v>2.8130000000000002</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D173" s="50">
         <f t="shared" si="66"/>
@@ -23840,13 +23855,13 @@
     </row>
     <row r="176" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B176" s="46"/>
-      <c r="C176" s="73">
+      <c r="C176" s="75">
         <v>1</v>
       </c>
-      <c r="D176" s="73"/>
+      <c r="D176" s="75"/>
       <c r="I176" s="43"/>
       <c r="J176" s="43"/>
       <c r="K176" s="43"/>
@@ -23857,7 +23872,7 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B177" s="74"/>
       <c r="C177" s="74"/>
@@ -23865,10 +23880,10 @@
       <c r="E177" s="74"/>
       <c r="F177" s="74"/>
       <c r="G177" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H177" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I177" s="74"/>
       <c r="J177" s="74"/>
@@ -23889,7 +23904,7 @@
         <v>3.3410000000000002</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D178" s="53"/>
       <c r="E178" s="53"/>
@@ -23945,7 +23960,7 @@
         <v>3.1960000000000002</v>
       </c>
       <c r="C180" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D180" s="50">
         <f t="shared" ref="D180:D191" si="72">(B179+B180)/2</f>
@@ -24111,7 +24126,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C185" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D185" s="50">
         <f t="shared" si="72"/>
@@ -24343,7 +24358,7 @@
         <v>3.097</v>
       </c>
       <c r="C190" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D190" s="50">
         <f t="shared" si="72"/>
@@ -24390,7 +24405,7 @@
         <v>3.1040000000000001</v>
       </c>
       <c r="C191" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D191" s="50">
         <f t="shared" si="72"/>
@@ -24464,16 +24479,16 @@
       <c r="D193" s="43"/>
       <c r="E193" s="53"/>
       <c r="F193" s="50"/>
-      <c r="G193" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H193" s="75"/>
+      <c r="G193" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H193" s="76"/>
       <c r="I193" s="53">
         <f>F192</f>
         <v>63.375999999999991</v>
       </c>
       <c r="J193" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K193" s="53">
         <f>L192</f>
@@ -24508,13 +24523,13 @@
     </row>
     <row r="195" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B195" s="46"/>
-      <c r="C195" s="73">
+      <c r="C195" s="75">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D195" s="73"/>
+      <c r="D195" s="75"/>
       <c r="I195" s="43"/>
       <c r="J195" s="43"/>
       <c r="K195" s="43"/>
@@ -24525,7 +24540,7 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B196" s="74"/>
       <c r="C196" s="74"/>
@@ -24533,10 +24548,10 @@
       <c r="E196" s="74"/>
       <c r="F196" s="74"/>
       <c r="G196" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H196" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I196" s="74"/>
       <c r="J196" s="74"/>
@@ -24557,7 +24572,7 @@
         <v>2.3969999999999998</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D197" s="53"/>
       <c r="E197" s="53"/>
@@ -24581,7 +24596,7 @@
         <v>2.39</v>
       </c>
       <c r="C198" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D198" s="50">
         <f>(B197+B198)/2</f>
@@ -24711,7 +24726,7 @@
         <v>-0.184</v>
       </c>
       <c r="C202" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D202" s="50">
         <f t="shared" si="78"/>
@@ -24858,7 +24873,7 @@
         <v>3.1949999999999998</v>
       </c>
       <c r="C206" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D206" s="50">
         <f t="shared" si="78"/>
@@ -24906,7 +24921,7 @@
         <v>3.2</v>
       </c>
       <c r="C207" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D207" s="50">
         <f t="shared" si="78"/>
@@ -24955,7 +24970,7 @@
         <v>3.1360000000000001</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D208" s="50">
         <f t="shared" si="78"/>
@@ -25128,13 +25143,13 @@
     </row>
     <row r="214" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B214" s="46"/>
-      <c r="C214" s="73">
+      <c r="C214" s="75">
         <v>1.22</v>
       </c>
-      <c r="D214" s="73"/>
+      <c r="D214" s="75"/>
       <c r="I214" s="43"/>
       <c r="J214" s="43"/>
       <c r="K214" s="43"/>
@@ -25145,7 +25160,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B215" s="74"/>
       <c r="C215" s="74"/>
@@ -25153,10 +25168,10 @@
       <c r="E215" s="74"/>
       <c r="F215" s="74"/>
       <c r="G215" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H215" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I215" s="74"/>
       <c r="J215" s="74"/>
@@ -25177,7 +25192,7 @@
         <v>3.5830000000000002</v>
       </c>
       <c r="C216" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D216" s="53"/>
       <c r="E216" s="53"/>
@@ -25201,7 +25216,7 @@
         <v>3.5979999999999999</v>
       </c>
       <c r="C217" s="50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D217" s="50">
         <f>(B216+B217)/2</f>
@@ -25235,7 +25250,7 @@
         <v>3.5550000000000002</v>
       </c>
       <c r="C218" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D218" s="50">
         <f t="shared" ref="D218:D230" si="84">(B217+B218)/2</f>
@@ -25365,7 +25380,7 @@
         <v>-0.223</v>
       </c>
       <c r="C222" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D222" s="50">
         <f t="shared" si="84"/>
@@ -25525,7 +25540,7 @@
         <v>3.4769999999999999</v>
       </c>
       <c r="C226" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D226" s="50">
         <f t="shared" si="84"/>
@@ -25573,7 +25588,7 @@
         <v>3.464</v>
       </c>
       <c r="C227" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D227" s="50">
         <f t="shared" si="84"/>
@@ -25713,7 +25728,7 @@
         <v>2.4550000000000001</v>
       </c>
       <c r="C230" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D230" s="50">
         <f t="shared" si="84"/>
@@ -25758,16 +25773,16 @@
       <c r="D231" s="43"/>
       <c r="E231" s="53"/>
       <c r="F231" s="50"/>
-      <c r="G231" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H231" s="75"/>
+      <c r="G231" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H231" s="76"/>
       <c r="I231" s="53" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J231" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K231" s="53" t="e">
         <f>#REF!</f>
@@ -25783,13 +25798,13 @@
     </row>
     <row r="232" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B232" s="46"/>
-      <c r="C232" s="73">
+      <c r="C232" s="75">
         <v>1.32</v>
       </c>
-      <c r="D232" s="73"/>
+      <c r="D232" s="75"/>
       <c r="I232" s="43"/>
       <c r="J232" s="43"/>
       <c r="K232" s="43"/>
@@ -25800,7 +25815,7 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B233" s="74"/>
       <c r="C233" s="74"/>
@@ -25808,10 +25823,10 @@
       <c r="E233" s="74"/>
       <c r="F233" s="74"/>
       <c r="G233" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H233" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I233" s="74"/>
       <c r="J233" s="74"/>
@@ -25832,7 +25847,7 @@
         <v>2.609</v>
       </c>
       <c r="C234" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D234" s="53"/>
       <c r="E234" s="53"/>
@@ -25856,7 +25871,7 @@
         <v>2.5960000000000001</v>
       </c>
       <c r="C235" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D235" s="50">
         <f>(B234+B235)/2</f>
@@ -25986,7 +26001,7 @@
         <v>-0.23499999999999999</v>
       </c>
       <c r="C239" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D239" s="50">
         <f t="shared" si="90"/>
@@ -26133,7 +26148,7 @@
         <v>2.7040000000000002</v>
       </c>
       <c r="C243" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D243" s="50">
         <f t="shared" si="90"/>
@@ -26181,7 +26196,7 @@
         <v>2.7160000000000002</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D244" s="50">
         <f t="shared" si="90"/>
@@ -26320,13 +26335,13 @@
     </row>
     <row r="248" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B248" s="46"/>
-      <c r="C248" s="73">
+      <c r="C248" s="75">
         <v>1.42</v>
       </c>
-      <c r="D248" s="73"/>
+      <c r="D248" s="75"/>
       <c r="I248" s="43"/>
       <c r="J248" s="43"/>
       <c r="K248" s="43"/>
@@ -26337,7 +26352,7 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B249" s="74"/>
       <c r="C249" s="74"/>
@@ -26345,10 +26360,10 @@
       <c r="E249" s="74"/>
       <c r="F249" s="74"/>
       <c r="G249" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H249" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I249" s="74"/>
       <c r="J249" s="74"/>
@@ -26369,7 +26384,7 @@
         <v>3.0550000000000002</v>
       </c>
       <c r="C250" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D250" s="53"/>
       <c r="E250" s="53"/>
@@ -26393,7 +26408,7 @@
         <v>3.0659999999999998</v>
       </c>
       <c r="C251" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D251" s="50">
         <f>(B250+B251)/2</f>
@@ -26427,7 +26442,7 @@
         <v>3.044</v>
       </c>
       <c r="C252" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D252" s="50">
         <f t="shared" ref="D252:D265" si="96">(B251+B252)/2</f>
@@ -26589,7 +26604,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="C257" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D257" s="50">
         <f t="shared" si="96"/>
@@ -26807,7 +26822,7 @@
         <v>3.4980000000000002</v>
       </c>
       <c r="C262" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D262" s="50">
         <f t="shared" si="96"/>
@@ -26854,7 +26869,7 @@
         <v>3.5070000000000001</v>
       </c>
       <c r="C263" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D263" s="50">
         <f t="shared" si="96"/>
@@ -26948,7 +26963,7 @@
         <v>1.9530000000000001</v>
       </c>
       <c r="C265" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D265" s="50">
         <f t="shared" si="96"/>
@@ -26993,16 +27008,16 @@
       <c r="D266" s="43"/>
       <c r="E266" s="53"/>
       <c r="F266" s="50"/>
-      <c r="G266" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H266" s="75"/>
+      <c r="G266" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H266" s="76"/>
       <c r="I266" s="53" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J266" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K266" s="53" t="e">
         <f>#REF!</f>
@@ -27018,13 +27033,13 @@
     </row>
     <row r="267" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B267" s="46"/>
-      <c r="C267" s="73">
+      <c r="C267" s="75">
         <v>1.52</v>
       </c>
-      <c r="D267" s="73"/>
+      <c r="D267" s="75"/>
       <c r="I267" s="43"/>
       <c r="J267" s="43"/>
       <c r="K267" s="43"/>
@@ -27035,7 +27050,7 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B268" s="74"/>
       <c r="C268" s="74"/>
@@ -27043,10 +27058,10 @@
       <c r="E268" s="74"/>
       <c r="F268" s="74"/>
       <c r="G268" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H268" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I268" s="74"/>
       <c r="J268" s="74"/>
@@ -27067,7 +27082,7 @@
         <v>3.0259999999999998</v>
       </c>
       <c r="C269" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D269" s="53"/>
       <c r="E269" s="53"/>
@@ -27091,7 +27106,7 @@
         <v>3.012</v>
       </c>
       <c r="C270" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D270" s="50">
         <f>(B269+B270)/2</f>
@@ -27310,7 +27325,7 @@
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="C275" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D275" s="50">
         <f t="shared" si="102"/>
@@ -27539,7 +27554,7 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="C280" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D280" s="50">
         <f t="shared" si="102"/>
@@ -27586,7 +27601,7 @@
         <v>3.6019999999999999</v>
       </c>
       <c r="C281" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D281" s="50">
         <f t="shared" si="102"/>
@@ -27632,7 +27647,7 @@
         <v>3.589</v>
       </c>
       <c r="C282" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D282" s="50">
         <f t="shared" si="102"/>
@@ -27727,7 +27742,7 @@
       <c r="E285" s="53"/>
       <c r="F285" s="50"/>
       <c r="G285" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H285" s="53"/>
       <c r="I285" s="53" t="e">
@@ -27735,7 +27750,7 @@
         <v>#REF!</v>
       </c>
       <c r="J285" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K285" s="53" t="e">
         <f>#REF!</f>
@@ -27752,13 +27767,13 @@
     </row>
     <row r="286" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B286" s="46"/>
-      <c r="C286" s="73">
+      <c r="C286" s="75">
         <v>1.625</v>
       </c>
-      <c r="D286" s="73"/>
+      <c r="D286" s="75"/>
       <c r="I286" s="43"/>
       <c r="J286" s="43"/>
       <c r="K286" s="43"/>
@@ -27769,7 +27784,7 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B287" s="74"/>
       <c r="C287" s="74"/>
@@ -27777,10 +27792,10 @@
       <c r="E287" s="74"/>
       <c r="F287" s="74"/>
       <c r="G287" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H287" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I287" s="74"/>
       <c r="J287" s="74"/>
@@ -27801,7 +27816,7 @@
         <v>3.1179999999999999</v>
       </c>
       <c r="C288" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D288" s="53"/>
       <c r="E288" s="53"/>
@@ -27825,7 +27840,7 @@
         <v>3.113</v>
       </c>
       <c r="C289" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D289" s="50">
         <f>(B288+B289)/2</f>
@@ -27991,7 +28006,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="C294" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D294" s="50">
         <f t="shared" si="108"/>
@@ -28216,7 +28231,7 @@
         <v>3.008</v>
       </c>
       <c r="C299" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D299" s="50">
         <f t="shared" si="108"/>
@@ -28356,7 +28371,7 @@
         <v>3.7869999999999999</v>
       </c>
       <c r="C302" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D302" s="50">
         <f t="shared" si="108"/>
@@ -28402,7 +28417,7 @@
         <v>3.78</v>
       </c>
       <c r="C303" s="52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D303" s="50">
         <f t="shared" si="108"/>
@@ -28448,7 +28463,7 @@
       <c r="E304" s="53"/>
       <c r="F304" s="50"/>
       <c r="G304" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H304" s="53"/>
       <c r="I304" s="53" t="e">
@@ -28456,7 +28471,7 @@
         <v>#REF!</v>
       </c>
       <c r="J304" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K304" s="53" t="e">
         <f>#REF!</f>
@@ -28473,13 +28488,13 @@
     </row>
     <row r="305" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B305" s="46"/>
-      <c r="C305" s="73">
+      <c r="C305" s="75">
         <v>1.7250000000000001</v>
       </c>
-      <c r="D305" s="73"/>
+      <c r="D305" s="75"/>
       <c r="I305" s="43"/>
       <c r="J305" s="43"/>
       <c r="K305" s="43"/>
@@ -28490,7 +28505,7 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B306" s="74"/>
       <c r="C306" s="74"/>
@@ -28498,10 +28513,10 @@
       <c r="E306" s="74"/>
       <c r="F306" s="74"/>
       <c r="G306" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H306" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I306" s="74"/>
       <c r="J306" s="74"/>
@@ -28522,7 +28537,7 @@
         <v>2.5289999999999999</v>
       </c>
       <c r="C307" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D307" s="53"/>
       <c r="E307" s="53"/>
@@ -28578,7 +28593,7 @@
         <v>3.5350000000000001</v>
       </c>
       <c r="C309" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D309" s="50">
         <f t="shared" ref="D309:D322" si="114">(B308+B309)/2</f>
@@ -28612,7 +28627,7 @@
         <v>3.53</v>
       </c>
       <c r="C310" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D310" s="50">
         <f t="shared" si="114"/>
@@ -28829,7 +28844,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D315" s="50">
         <f t="shared" si="114"/>
@@ -29059,7 +29074,7 @@
         <v>3.339</v>
       </c>
       <c r="C320" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D320" s="50">
         <f t="shared" si="114"/>
@@ -29123,7 +29138,7 @@
         <v>3.3540000000000001</v>
       </c>
       <c r="C322" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D322" s="50">
         <f t="shared" si="114"/>
@@ -29166,13 +29181,13 @@
     </row>
     <row r="324" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B324" s="46"/>
-      <c r="C324" s="73">
+      <c r="C324" s="75">
         <v>1.825</v>
       </c>
-      <c r="D324" s="73"/>
+      <c r="D324" s="75"/>
       <c r="I324" s="43"/>
       <c r="J324" s="43"/>
       <c r="K324" s="43"/>
@@ -29183,7 +29198,7 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A325" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B325" s="74"/>
       <c r="C325" s="74"/>
@@ -29191,10 +29206,10 @@
       <c r="E325" s="74"/>
       <c r="F325" s="74"/>
       <c r="G325" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H325" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I325" s="74"/>
       <c r="J325" s="74"/>
@@ -29215,7 +29230,7 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="C326" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D326" s="53"/>
       <c r="E326" s="53"/>
@@ -29303,7 +29318,7 @@
         <v>3.7269999999999999</v>
       </c>
       <c r="C329" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D329" s="50">
         <f t="shared" si="120"/>
@@ -29462,7 +29477,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="C333" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D333" s="50">
         <f t="shared" si="120"/>
@@ -29647,7 +29662,7 @@
         <v>3.35</v>
       </c>
       <c r="C337" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D337" s="50">
         <f t="shared" si="120"/>
@@ -29695,7 +29710,7 @@
         <v>3.3559999999999999</v>
       </c>
       <c r="C338" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D338" s="50">
         <f t="shared" si="120"/>
@@ -29766,13 +29781,13 @@
     </row>
     <row r="340" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B340" s="46"/>
-      <c r="C340" s="73">
+      <c r="C340" s="75">
         <v>1.925</v>
       </c>
-      <c r="D340" s="73"/>
+      <c r="D340" s="75"/>
       <c r="I340" s="43"/>
       <c r="J340" s="43"/>
       <c r="K340" s="43"/>
@@ -29783,7 +29798,7 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B341" s="74"/>
       <c r="C341" s="74"/>
@@ -29791,10 +29806,10 @@
       <c r="E341" s="74"/>
       <c r="F341" s="74"/>
       <c r="G341" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H341" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I341" s="74"/>
       <c r="J341" s="74"/>
@@ -29815,7 +29830,7 @@
         <v>3.6269999999999998</v>
       </c>
       <c r="C342" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D342" s="53"/>
       <c r="E342" s="53"/>
@@ -29871,7 +29886,7 @@
         <v>3.8279999999999998</v>
       </c>
       <c r="C344" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D344" s="50">
         <f t="shared" ref="D344:D355" si="126">(B343+B344)/2</f>
@@ -30005,7 +30020,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="C348" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D348" s="50">
         <f t="shared" si="126"/>
@@ -30187,7 +30202,7 @@
         <v>3.5070000000000001</v>
       </c>
       <c r="C352" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D352" s="50">
         <f t="shared" si="126"/>
@@ -30326,7 +30341,7 @@
         <v>3.5409999999999999</v>
       </c>
       <c r="C355" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D355" s="50">
         <f t="shared" si="126"/>
@@ -30397,13 +30412,13 @@
     </row>
     <row r="357" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B357" s="46"/>
-      <c r="C357" s="73">
+      <c r="C357" s="75">
         <v>2.0249999999999999</v>
       </c>
-      <c r="D357" s="73"/>
+      <c r="D357" s="75"/>
       <c r="I357" s="43"/>
       <c r="J357" s="43"/>
       <c r="K357" s="43"/>
@@ -30414,7 +30429,7 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B358" s="74"/>
       <c r="C358" s="74"/>
@@ -30422,10 +30437,10 @@
       <c r="E358" s="74"/>
       <c r="F358" s="74"/>
       <c r="G358" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H358" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I358" s="74"/>
       <c r="J358" s="74"/>
@@ -30446,7 +30461,7 @@
         <v>3.7320000000000002</v>
       </c>
       <c r="C359" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D359" s="53"/>
       <c r="E359" s="53"/>
@@ -30470,7 +30485,7 @@
         <v>3.9750000000000001</v>
       </c>
       <c r="C360" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D360" s="50">
         <f>(B359+B360)/2</f>
@@ -30649,7 +30664,7 @@
         <v>0.153</v>
       </c>
       <c r="C365" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D365" s="50">
         <f t="shared" si="132"/>
@@ -30879,7 +30894,7 @@
         <v>2.6320000000000001</v>
       </c>
       <c r="C370" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D370" s="50">
         <f t="shared" si="132"/>
@@ -30913,7 +30928,7 @@
         <v>2.6459999999999999</v>
       </c>
       <c r="C371" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D371" s="50">
         <f t="shared" si="132"/>
@@ -30946,7 +30961,7 @@
       <c r="E372" s="53"/>
       <c r="F372" s="50"/>
       <c r="G372" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H372" s="53"/>
       <c r="I372" s="53" t="e">
@@ -30954,7 +30969,7 @@
         <v>#REF!</v>
       </c>
       <c r="J372" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K372" s="53" t="e">
         <f>#REF!</f>
@@ -30971,13 +30986,13 @@
     </row>
     <row r="374" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B374" s="46"/>
-      <c r="C374" s="73">
+      <c r="C374" s="75">
         <v>2.1349999999999998</v>
       </c>
-      <c r="D374" s="73"/>
+      <c r="D374" s="75"/>
       <c r="I374" s="43"/>
       <c r="J374" s="43"/>
       <c r="K374" s="43"/>
@@ -30988,7 +31003,7 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A375" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B375" s="74"/>
       <c r="C375" s="74"/>
@@ -30996,10 +31011,10 @@
       <c r="E375" s="74"/>
       <c r="F375" s="74"/>
       <c r="G375" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H375" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I375" s="74"/>
       <c r="J375" s="74"/>
@@ -31020,7 +31035,7 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="C376" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D376" s="53"/>
       <c r="E376" s="53"/>
@@ -31044,7 +31059,7 @@
         <v>3.9990000000000001</v>
       </c>
       <c r="C377" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D377" s="50">
         <f>(B376+B377)/2</f>
@@ -31206,7 +31221,7 @@
         <v>-0.1</v>
       </c>
       <c r="C382" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D382" s="50">
         <f t="shared" si="138"/>
@@ -31395,7 +31410,7 @@
         <v>2.6619999999999999</v>
       </c>
       <c r="C387" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D387" s="50">
         <f t="shared" si="138"/>
@@ -31486,7 +31501,7 @@
         <v>2.681</v>
       </c>
       <c r="C389" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D389" s="50">
         <f t="shared" si="138"/>
@@ -31527,13 +31542,13 @@
     </row>
     <row r="391" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B391" s="46"/>
-      <c r="C391" s="73">
+      <c r="C391" s="75">
         <v>2.2349999999999999</v>
       </c>
-      <c r="D391" s="73"/>
+      <c r="D391" s="75"/>
       <c r="I391" s="43"/>
       <c r="J391" s="43"/>
       <c r="K391" s="43"/>
@@ -31544,7 +31559,7 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A392" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B392" s="74"/>
       <c r="C392" s="74"/>
@@ -31552,10 +31567,10 @@
       <c r="E392" s="74"/>
       <c r="F392" s="74"/>
       <c r="G392" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H392" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I392" s="74"/>
       <c r="J392" s="74"/>
@@ -31576,7 +31591,7 @@
         <v>3.0510000000000002</v>
       </c>
       <c r="C393" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D393" s="53"/>
       <c r="E393" s="53"/>
@@ -31632,7 +31647,7 @@
         <v>4.3339999999999996</v>
       </c>
       <c r="C395" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D395" s="50">
         <f t="shared" ref="D395:D407" si="144">(B394+B395)/2</f>
@@ -31666,7 +31681,7 @@
         <v>4.327</v>
       </c>
       <c r="C396" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D396" s="50">
         <f t="shared" si="144"/>
@@ -31795,7 +31810,7 @@
         <v>-0.47299999999999998</v>
       </c>
       <c r="C400" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D400" s="50">
         <f t="shared" si="144"/>
@@ -31940,7 +31955,7 @@
         <v>2.5430000000000001</v>
       </c>
       <c r="C404" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D404" s="50">
         <f t="shared" si="144"/>
@@ -32075,7 +32090,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="C407" s="50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D407" s="50">
         <f t="shared" si="144"/>
@@ -32115,13 +32130,13 @@
     </row>
     <row r="409" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B409" s="46"/>
-      <c r="C409" s="73">
+      <c r="C409" s="75">
         <v>2.34</v>
       </c>
-      <c r="D409" s="73"/>
+      <c r="D409" s="75"/>
       <c r="I409" s="43"/>
       <c r="J409" s="43"/>
       <c r="K409" s="43"/>
@@ -32132,7 +32147,7 @@
     </row>
     <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A410" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B410" s="74"/>
       <c r="C410" s="74"/>
@@ -32140,10 +32155,10 @@
       <c r="E410" s="74"/>
       <c r="F410" s="74"/>
       <c r="G410" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H410" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I410" s="74"/>
       <c r="J410" s="74"/>
@@ -32164,7 +32179,7 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="C411" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D411" s="53"/>
       <c r="E411" s="53"/>
@@ -32220,7 +32235,7 @@
         <v>1.012</v>
       </c>
       <c r="C413" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D413" s="50">
         <f t="shared" ref="D413:D423" si="150">(B412+B413)/2</f>
@@ -32394,7 +32409,7 @@
         <v>-0.2</v>
       </c>
       <c r="C417" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D417" s="50">
         <f t="shared" si="150"/>
@@ -32578,7 +32593,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="C421" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D421" s="50">
         <f t="shared" si="150"/>
@@ -32657,7 +32672,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="C423" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D423" s="50">
         <f t="shared" si="150"/>
@@ -32770,13 +32785,13 @@
     </row>
     <row r="429" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B429" s="46"/>
-      <c r="C429" s="73">
+      <c r="C429" s="75">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D429" s="73"/>
+      <c r="D429" s="75"/>
       <c r="I429" s="43"/>
       <c r="J429" s="43"/>
       <c r="K429" s="43"/>
@@ -32787,7 +32802,7 @@
     </row>
     <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B430" s="74"/>
       <c r="C430" s="74"/>
@@ -32795,10 +32810,10 @@
       <c r="E430" s="74"/>
       <c r="F430" s="74"/>
       <c r="G430" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H430" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I430" s="74"/>
       <c r="J430" s="74"/>
@@ -32819,7 +32834,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="C431" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D431" s="53"/>
       <c r="E431" s="53"/>
@@ -32876,7 +32891,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="C433" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D433" s="50">
         <f t="shared" ref="D433:D443" si="156">(B432+B433)/2</f>
@@ -33023,7 +33038,7 @@
         <v>-0.38100000000000001</v>
       </c>
       <c r="C437" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D437" s="50">
         <f t="shared" si="156"/>
@@ -33207,7 +33222,7 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="C441" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D441" s="50">
         <f t="shared" si="156"/>
@@ -33300,7 +33315,7 @@
         <v>1.617</v>
       </c>
       <c r="C443" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D443" s="50">
         <f t="shared" si="156"/>
@@ -33347,13 +33362,13 @@
     </row>
     <row r="445" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B445" s="46"/>
-      <c r="C445" s="73">
+      <c r="C445" s="75">
         <v>2.5249999999999999</v>
       </c>
-      <c r="D445" s="73"/>
+      <c r="D445" s="75"/>
       <c r="I445" s="43"/>
       <c r="J445" s="43"/>
       <c r="K445" s="43"/>
@@ -33365,7 +33380,7 @@
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B446" s="74"/>
       <c r="C446" s="74"/>
@@ -33373,10 +33388,10 @@
       <c r="E446" s="74"/>
       <c r="F446" s="74"/>
       <c r="G446" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H446" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I446" s="74"/>
       <c r="J446" s="74"/>
@@ -33398,7 +33413,7 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="C447" s="50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D447" s="53"/>
       <c r="E447" s="53"/>
@@ -33455,7 +33470,7 @@
         <v>2.774</v>
       </c>
       <c r="C449" s="50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D449" s="50">
         <f t="shared" ref="D449:D462" si="162">(B448+B449)/2</f>
@@ -33489,7 +33504,7 @@
         <v>2.7690000000000001</v>
       </c>
       <c r="C450" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D450" s="50">
         <f t="shared" si="162"/>
@@ -33679,7 +33694,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="C455" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D455" s="50">
         <f t="shared" si="162"/>
@@ -33906,7 +33921,7 @@
         <v>3.5939999999999999</v>
       </c>
       <c r="C460" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D460" s="50">
         <f t="shared" si="162"/>
@@ -34002,7 +34017,7 @@
         <v>3.6040000000000001</v>
       </c>
       <c r="C462" s="50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D462" s="50">
         <f t="shared" si="162"/>
@@ -34324,7 +34339,7 @@
       <c r="E474" s="53"/>
       <c r="F474" s="50"/>
       <c r="G474" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H474" s="53"/>
       <c r="I474" s="53">
@@ -34332,7 +34347,7 @@
         <v>73.982499999999987</v>
       </c>
       <c r="J474" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K474" s="53">
         <f>L472</f>
@@ -37303,9 +37318,6 @@
     <mergeCell ref="C214:D214"/>
     <mergeCell ref="A215:F215"/>
     <mergeCell ref="H215:L215"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="A375:F375"/>
-    <mergeCell ref="H375:L375"/>
     <mergeCell ref="C391:D391"/>
     <mergeCell ref="C286:D286"/>
     <mergeCell ref="A287:F287"/>
@@ -37322,6 +37334,9 @@
     <mergeCell ref="H341:L341"/>
     <mergeCell ref="C357:D357"/>
     <mergeCell ref="A358:F358"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="A375:F375"/>
+    <mergeCell ref="H375:L375"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -37331,41 +37346,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -37377,8 +37413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37417,25 +37453,25 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -37450,10 +37486,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H2" s="3">
         <v>1.9</v>
@@ -37473,7 +37509,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -37488,10 +37524,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H3" s="3">
         <v>1.9</v>
@@ -37511,7 +37547,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -37526,10 +37562,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H4" s="3">
         <v>1.9</v>
@@ -37549,7 +37585,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -37564,10 +37600,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H5" s="3">
         <v>1.9</v>
@@ -37587,7 +37623,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3">
         <v>400</v>
@@ -37602,10 +37638,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H6" s="3">
         <v>1.9</v>
@@ -37625,7 +37661,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3">
         <v>500</v>
@@ -37640,10 +37676,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H7" s="3">
         <v>1.9</v>
@@ -37663,7 +37699,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -37678,10 +37714,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H8" s="3">
         <v>1.9</v>
@@ -37701,7 +37737,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B9" s="32">
         <v>700</v>
@@ -37716,10 +37752,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H9" s="3">
         <v>1.9</v>
@@ -37739,7 +37775,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" s="32">
         <v>800</v>
@@ -37754,10 +37790,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H10" s="3">
         <v>1.9</v>
@@ -37777,7 +37813,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B11" s="32">
         <v>900</v>
@@ -37792,10 +37828,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H11" s="3">
         <v>1.9</v>
@@ -37815,7 +37851,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B12" s="32">
         <v>1000</v>
@@ -37830,10 +37866,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H12" s="3">
         <v>1.9</v>
@@ -37853,7 +37889,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B13" s="32">
         <v>1100</v>
@@ -37868,10 +37904,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H13" s="3">
         <v>1.9</v>
@@ -37891,7 +37927,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B14" s="33">
         <v>1220</v>
@@ -37906,10 +37942,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H14" s="3">
         <v>1.9</v>
@@ -37929,7 +37965,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B15" s="33">
         <v>1320</v>
@@ -37944,10 +37980,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H15" s="3">
         <v>1.9</v>
@@ -37967,7 +38003,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2">
         <v>1420</v>
@@ -37982,10 +38018,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H16" s="3">
         <v>1.9</v>
@@ -38005,7 +38041,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2">
         <v>1520</v>
@@ -38020,10 +38056,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H17" s="3">
         <v>1.9</v>
@@ -38043,7 +38079,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2">
         <v>1625</v>
@@ -38058,10 +38094,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H18" s="3">
         <v>1.9</v>
@@ -38081,7 +38117,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2">
         <v>1725</v>
@@ -38096,10 +38132,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H19" s="3">
         <v>1.9</v>
@@ -38119,7 +38155,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2">
         <v>1825</v>
@@ -38134,10 +38170,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H20" s="3">
         <v>1.9</v>
@@ -38157,7 +38193,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2">
         <v>1925</v>
@@ -38172,10 +38208,10 @@
         <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H21" s="3">
         <v>1.9</v>
@@ -38195,7 +38231,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
@@ -38210,10 +38246,10 @@
         <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H22" s="3">
         <v>1.9</v>
@@ -38233,7 +38269,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2">
         <v>2135</v>
@@ -38248,10 +38284,10 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H23" s="3">
         <v>1.9</v>
@@ -38271,7 +38307,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B24" s="35">
         <v>2235</v>
@@ -38286,10 +38322,10 @@
         <v>6</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H24" s="3">
         <v>1.9</v>
@@ -38309,7 +38345,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B25" s="35">
         <v>2340</v>
@@ -38324,10 +38360,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H25" s="3">
         <v>1.9</v>
@@ -38347,7 +38383,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B26" s="35">
         <v>2450</v>
@@ -38362,10 +38398,10 @@
         <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H26" s="3">
         <v>1.9</v>
@@ -38385,7 +38421,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B27" s="35">
         <v>2525</v>
@@ -38400,10 +38436,10 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H27" s="3">
         <v>1.9</v>
@@ -38725,7 +38761,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38745,36 +38781,36 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.30199999999999999</v>
+        <v>-1.3</v>
       </c>
       <c r="C2" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -38782,14 +38818,14 @@
       <c r="E2" s="7">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>129</v>
+      <c r="F2" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -38815,18 +38851,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38834,7 +38870,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38842,7 +38878,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38850,7 +38886,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38858,15 +38894,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38874,7 +38910,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38882,7 +38918,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -38890,7 +38926,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38898,7 +38934,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -38906,7 +38942,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38914,7 +38950,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -38922,7 +38958,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -38930,7 +38966,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -38938,7 +38974,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38946,7 +38982,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38954,7 +38990,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38962,7 +38998,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38970,7 +39006,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38978,7 +39014,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38986,7 +39022,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38994,7 +39030,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -39002,7 +39038,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -39015,7 +39051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -39028,82 +39064,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -39140,18 +39176,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39159,7 +39195,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39167,7 +39203,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39175,7 +39211,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39183,7 +39219,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -39191,7 +39227,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -39199,7 +39235,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -39207,7 +39243,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39215,10 +39251,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -39226,7 +39262,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39234,7 +39270,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39242,7 +39278,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39250,7 +39286,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -39258,31 +39294,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39290,7 +39326,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39298,7 +39334,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -39306,15 +39342,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39322,7 +39358,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -39330,7 +39366,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39338,7 +39374,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39346,7 +39382,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39354,7 +39390,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39362,7 +39398,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Pathalia Khal/Pathalia_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Pathalia Khal/Pathalia_khal_Dataprep_Input.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="163">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>29/11/2024</t>
@@ -531,6 +528,12 @@
   </si>
   <si>
     <t>Ouftfall</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1214,11 +1217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150238720"/>
-        <c:axId val="150240256"/>
+        <c:axId val="235854848"/>
+        <c:axId val="235860736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150238720"/>
+        <c:axId val="235854848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1264,12 +1267,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150240256"/>
+        <c:crossAx val="235860736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150240256"/>
+        <c:axId val="235860736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150238720"/>
+        <c:crossAx val="235854848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1634,11 +1637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151481344"/>
-        <c:axId val="151487232"/>
+        <c:axId val="236385024"/>
+        <c:axId val="236386560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151481344"/>
+        <c:axId val="236385024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1684,12 +1687,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151487232"/>
+        <c:crossAx val="236386560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151487232"/>
+        <c:axId val="236386560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151481344"/>
+        <c:crossAx val="236385024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2036,11 +2039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151508480"/>
-        <c:axId val="151510016"/>
+        <c:axId val="236403712"/>
+        <c:axId val="236421888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151508480"/>
+        <c:axId val="236403712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2086,12 +2089,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151510016"/>
+        <c:crossAx val="236421888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151510016"/>
+        <c:axId val="236421888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +2139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151508480"/>
+        <c:crossAx val="236403712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2426,11 +2429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151556096"/>
-        <c:axId val="151557632"/>
+        <c:axId val="236443136"/>
+        <c:axId val="236444672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151556096"/>
+        <c:axId val="236443136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2476,12 +2479,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151557632"/>
+        <c:crossAx val="236444672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151557632"/>
+        <c:axId val="236444672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,7 +2529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151556096"/>
+        <c:crossAx val="236443136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2834,11 +2837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151578880"/>
-        <c:axId val="151601152"/>
+        <c:axId val="236494848"/>
+        <c:axId val="236496384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151578880"/>
+        <c:axId val="236494848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2884,12 +2887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151601152"/>
+        <c:crossAx val="236496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151601152"/>
+        <c:axId val="236496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151578880"/>
+        <c:crossAx val="236494848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3212,11 +3215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151630592"/>
-        <c:axId val="151632128"/>
+        <c:axId val="237111552"/>
+        <c:axId val="237121536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151630592"/>
+        <c:axId val="237111552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3262,12 +3265,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151632128"/>
+        <c:crossAx val="237121536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151632128"/>
+        <c:axId val="237121536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,7 +3315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151630592"/>
+        <c:crossAx val="237111552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3632,11 +3635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151718912"/>
-        <c:axId val="151720704"/>
+        <c:axId val="237142784"/>
+        <c:axId val="237144320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151718912"/>
+        <c:axId val="237142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3682,12 +3685,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151720704"/>
+        <c:crossAx val="237144320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151720704"/>
+        <c:axId val="237144320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3732,7 +3735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151718912"/>
+        <c:crossAx val="237142784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4070,11 +4073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151774720"/>
-        <c:axId val="151776256"/>
+        <c:axId val="237186048"/>
+        <c:axId val="237196032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151774720"/>
+        <c:axId val="237186048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4120,12 +4123,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151776256"/>
+        <c:crossAx val="237196032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151776256"/>
+        <c:axId val="237196032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151774720"/>
+        <c:crossAx val="237186048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4502,11 +4505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151789568"/>
-        <c:axId val="151791104"/>
+        <c:axId val="237229568"/>
+        <c:axId val="237231104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151789568"/>
+        <c:axId val="237229568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4552,12 +4555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151791104"/>
+        <c:crossAx val="237231104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151791104"/>
+        <c:axId val="237231104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +4605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151789568"/>
+        <c:crossAx val="237229568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4928,11 +4931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151849216"/>
-        <c:axId val="151855104"/>
+        <c:axId val="237400448"/>
+        <c:axId val="237401984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151849216"/>
+        <c:axId val="237400448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4978,12 +4981,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151855104"/>
+        <c:crossAx val="237401984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151855104"/>
+        <c:axId val="237401984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151849216"/>
+        <c:crossAx val="237400448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5336,11 +5339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151884544"/>
-        <c:axId val="151886080"/>
+        <c:axId val="237431424"/>
+        <c:axId val="237433216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151884544"/>
+        <c:axId val="237431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5386,12 +5389,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151886080"/>
+        <c:crossAx val="237433216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151886080"/>
+        <c:axId val="237433216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5436,7 +5439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151884544"/>
+        <c:crossAx val="237431424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5726,11 +5729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151064576"/>
-        <c:axId val="151066112"/>
+        <c:axId val="235091456"/>
+        <c:axId val="235092992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151064576"/>
+        <c:axId val="235091456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5776,12 +5779,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151066112"/>
+        <c:crossAx val="235092992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151066112"/>
+        <c:axId val="235092992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5826,7 +5829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151064576"/>
+        <c:crossAx val="235091456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6140,11 +6143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151981056"/>
-        <c:axId val="151986944"/>
+        <c:axId val="237323392"/>
+        <c:axId val="237324928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151981056"/>
+        <c:axId val="237323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6190,12 +6193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151986944"/>
+        <c:crossAx val="237324928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151986944"/>
+        <c:axId val="237324928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6240,7 +6243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151981056"/>
+        <c:crossAx val="237323392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6530,11 +6533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152004480"/>
-        <c:axId val="152006016"/>
+        <c:axId val="237436928"/>
+        <c:axId val="237438464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152004480"/>
+        <c:axId val="237436928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6580,12 +6583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152006016"/>
+        <c:crossAx val="237438464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152006016"/>
+        <c:axId val="237438464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6630,7 +6633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152004480"/>
+        <c:crossAx val="237436928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6920,11 +6923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152060288"/>
-        <c:axId val="152061824"/>
+        <c:axId val="237451520"/>
+        <c:axId val="237465600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152060288"/>
+        <c:axId val="237451520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6970,12 +6973,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152061824"/>
+        <c:crossAx val="237465600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152061824"/>
+        <c:axId val="237465600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7020,7 +7023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152060288"/>
+        <c:crossAx val="237451520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7316,11 +7319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152095360"/>
-        <c:axId val="152097152"/>
+        <c:axId val="236921600"/>
+        <c:axId val="236923136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152095360"/>
+        <c:axId val="236921600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7366,12 +7369,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152097152"/>
+        <c:crossAx val="236923136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152097152"/>
+        <c:axId val="236923136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7416,7 +7419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152095360"/>
+        <c:crossAx val="236921600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7718,11 +7721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152142976"/>
-        <c:axId val="152144512"/>
+        <c:axId val="236944384"/>
+        <c:axId val="236954368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152142976"/>
+        <c:axId val="236944384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7768,12 +7771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152144512"/>
+        <c:crossAx val="236954368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152144512"/>
+        <c:axId val="236954368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7818,7 +7821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152142976"/>
+        <c:crossAx val="236944384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8120,11 +8123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152153088"/>
-        <c:axId val="152175360"/>
+        <c:axId val="236995712"/>
+        <c:axId val="236997248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152153088"/>
+        <c:axId val="236995712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8170,12 +8173,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152175360"/>
+        <c:crossAx val="236997248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152175360"/>
+        <c:axId val="236997248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8220,7 +8223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152153088"/>
+        <c:crossAx val="236995712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8582,11 +8585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152205568"/>
-        <c:axId val="152211456"/>
+        <c:axId val="237023616"/>
+        <c:axId val="237025152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152205568"/>
+        <c:axId val="237023616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8632,12 +8635,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152211456"/>
+        <c:crossAx val="237025152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152211456"/>
+        <c:axId val="237025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8682,7 +8685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152205568"/>
+        <c:crossAx val="237023616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8966,11 +8969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151083264"/>
-        <c:axId val="151089152"/>
+        <c:axId val="236589056"/>
+        <c:axId val="236590592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151083264"/>
+        <c:axId val="236589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9016,12 +9019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151089152"/>
+        <c:crossAx val="236590592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151089152"/>
+        <c:axId val="236590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9066,7 +9069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151083264"/>
+        <c:crossAx val="236589056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9386,11 +9389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151122688"/>
-        <c:axId val="151124224"/>
+        <c:axId val="236607744"/>
+        <c:axId val="236613632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151122688"/>
+        <c:axId val="236607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9436,12 +9439,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151124224"/>
+        <c:crossAx val="236613632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151124224"/>
+        <c:axId val="236613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9486,7 +9489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151122688"/>
+        <c:crossAx val="236607744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9770,11 +9773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151145472"/>
-        <c:axId val="151175936"/>
+        <c:axId val="236659456"/>
+        <c:axId val="236660992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151145472"/>
+        <c:axId val="236659456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9820,12 +9823,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151175936"/>
+        <c:crossAx val="236660992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151175936"/>
+        <c:axId val="236660992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9870,7 +9873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151145472"/>
+        <c:crossAx val="236659456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10160,11 +10163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151262720"/>
-        <c:axId val="151264256"/>
+        <c:axId val="236678528"/>
+        <c:axId val="236688512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151262720"/>
+        <c:axId val="236678528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10210,12 +10213,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151264256"/>
+        <c:crossAx val="236688512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151264256"/>
+        <c:axId val="236688512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10260,7 +10263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151262720"/>
+        <c:crossAx val="236678528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10586,11 +10589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151298048"/>
-        <c:axId val="151299584"/>
+        <c:axId val="236262912"/>
+        <c:axId val="236264448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151298048"/>
+        <c:axId val="236262912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10636,12 +10639,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151299584"/>
+        <c:crossAx val="236264448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151299584"/>
+        <c:axId val="236264448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10686,7 +10689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151298048"/>
+        <c:crossAx val="236262912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10976,11 +10979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151337216"/>
-        <c:axId val="151339008"/>
+        <c:axId val="236310528"/>
+        <c:axId val="236312064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151337216"/>
+        <c:axId val="236310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11026,12 +11029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151339008"/>
+        <c:crossAx val="236312064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151339008"/>
+        <c:axId val="236312064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11076,7 +11079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151337216"/>
+        <c:crossAx val="236310528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11348,11 +11351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151458560"/>
-        <c:axId val="151460096"/>
+        <c:axId val="236333312"/>
+        <c:axId val="236339200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151458560"/>
+        <c:axId val="236333312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11398,12 +11401,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151460096"/>
+        <c:crossAx val="236339200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151460096"/>
+        <c:axId val="236339200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11448,7 +11451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151458560"/>
+        <c:crossAx val="236333312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11522,7 +11525,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11560,7 +11563,7 @@
         <xdr:cNvPr id="54" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11598,7 +11601,7 @@
         <xdr:cNvPr id="73" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11636,7 +11639,7 @@
         <xdr:cNvPr id="74" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11674,7 +11677,7 @@
         <xdr:cNvPr id="75" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11712,7 +11715,7 @@
         <xdr:cNvPr id="76" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11750,7 +11753,7 @@
         <xdr:cNvPr id="77" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11788,7 +11791,7 @@
         <xdr:cNvPr id="78" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11826,7 +11829,7 @@
         <xdr:cNvPr id="79" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11864,7 +11867,7 @@
         <xdr:cNvPr id="80" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11902,7 +11905,7 @@
         <xdr:cNvPr id="81" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11940,7 +11943,7 @@
         <xdr:cNvPr id="82" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11978,7 +11981,7 @@
         <xdr:cNvPr id="116" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12016,7 +12019,7 @@
         <xdr:cNvPr id="117" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12054,7 +12057,7 @@
         <xdr:cNvPr id="118" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12092,7 +12095,7 @@
         <xdr:cNvPr id="119" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12130,7 +12133,7 @@
         <xdr:cNvPr id="120" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12168,7 +12171,7 @@
         <xdr:cNvPr id="121" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12206,7 +12209,7 @@
         <xdr:cNvPr id="122" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12244,7 +12247,7 @@
         <xdr:cNvPr id="123" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12282,7 +12285,7 @@
         <xdr:cNvPr id="124" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12320,7 +12323,7 @@
         <xdr:cNvPr id="125" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75497BF-EEE9-4FB6-B8CA-1F59BB214DB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75497BF-EEE9-4FB6-B8CA-1F59BB214DB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12358,7 +12361,7 @@
         <xdr:cNvPr id="126" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D697FDF5-03A9-4FCA-9F75-0BB7830582F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D697FDF5-03A9-4FCA-9F75-0BB7830582F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12396,7 +12399,7 @@
         <xdr:cNvPr id="127" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB92DCFF-821B-4DE2-946C-8D1F35FE6675}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB92DCFF-821B-4DE2-946C-8D1F35FE6675}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12434,7 +12437,7 @@
         <xdr:cNvPr id="128" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6B2784E-EDF8-4C59-9801-B779FBDA26AF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B2784E-EDF8-4C59-9801-B779FBDA26AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12472,7 +12475,7 @@
         <xdr:cNvPr id="129" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B282F09-F073-4DE1-8FB0-80144B2219C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B282F09-F073-4DE1-8FB0-80144B2219C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12510,7 +12513,7 @@
         <xdr:cNvPr id="130" name="Group 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC79F551-CBF3-448A-BCC7-33133866951D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC79F551-CBF3-448A-BCC7-33133866951D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12529,7 +12532,7 @@
           <xdr:cNvPr id="131" name="TextBox 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BC61D53-82EB-4691-AFEC-7664621DB5E8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC61D53-82EB-4691-AFEC-7664621DB5E8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12612,7 +12615,7 @@
           <xdr:cNvPr id="132" name="TextBox 131">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{822BF2DB-257B-4F57-83BF-9557AA86C02A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822BF2DB-257B-4F57-83BF-9557AA86C02A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12681,7 +12684,7 @@
           <xdr:cNvPr id="133" name="TextBox 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7DD74A8-AC13-4C69-B9C7-45406DD3CB86}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DD74A8-AC13-4C69-B9C7-45406DD3CB86}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17290,7 +17293,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17300,8 +17303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3120"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A17" activeCellId="1" sqref="A5:XFD5 A17:XFD17"/>
+    <sheetView topLeftCell="A388" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:XFD423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17703,7 +17706,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -17751,7 +17754,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="50">
@@ -17769,7 +17772,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -17777,7 +17780,7 @@
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="H4" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
@@ -17795,7 +17798,7 @@
         <v>1.8089999999999999</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -18291,7 +18294,7 @@
         <v>1.51</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="50">
         <f t="shared" si="0"/>
@@ -18354,7 +18357,7 @@
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="75">
@@ -18371,7 +18374,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -18379,10 +18382,10 @@
       <c r="E21" s="74"/>
       <c r="F21" s="74"/>
       <c r="G21" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
@@ -18400,7 +18403,7 @@
         <v>2.911</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -18851,7 +18854,7 @@
         <v>3.16</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="50">
         <f t="shared" si="8"/>
@@ -18897,7 +18900,7 @@
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="46"/>
       <c r="C35" s="75">
@@ -18917,7 +18920,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="74"/>
       <c r="C36" s="74"/>
@@ -18925,10 +18928,10 @@
       <c r="E36" s="74"/>
       <c r="F36" s="74"/>
       <c r="G36" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H36" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I36" s="74"/>
       <c r="J36" s="74"/>
@@ -18946,7 +18949,7 @@
         <v>3.47</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
@@ -18970,7 +18973,7 @@
         <v>3.4550000000000001</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="50">
         <f>(B37+B38)/2</f>
@@ -19357,7 +19360,7 @@
         <v>3.2930000000000001</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="50">
         <f t="shared" si="14"/>
@@ -19432,7 +19435,7 @@
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="75">
@@ -19452,7 +19455,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
@@ -19460,10 +19463,10 @@
       <c r="E51" s="74"/>
       <c r="F51" s="74"/>
       <c r="G51" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H51" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="74"/>
       <c r="J51" s="74"/>
@@ -19481,7 +19484,7 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -19569,7 +19572,7 @@
         <v>3.302</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="50">
         <f t="shared" si="22"/>
@@ -19981,7 +19984,7 @@
         <v>2.9969999999999999</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="50">
         <f t="shared" si="22"/>
@@ -20143,7 +20146,7 @@
     </row>
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="46"/>
       <c r="C71" s="75">
@@ -20160,7 +20163,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="74"/>
       <c r="C72" s="74"/>
@@ -20168,10 +20171,10 @@
       <c r="E72" s="74"/>
       <c r="F72" s="74"/>
       <c r="G72" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H72" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I72" s="74"/>
       <c r="J72" s="74"/>
@@ -20192,7 +20195,7 @@
         <v>2.9350000000000001</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="53"/>
       <c r="E73" s="53"/>
@@ -20643,7 +20646,7 @@
         <v>2.8380000000000001</v>
       </c>
       <c r="C84" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D84" s="50">
         <f t="shared" si="33"/>
@@ -20695,7 +20698,7 @@
       <c r="E86" s="53"/>
       <c r="F86" s="50"/>
       <c r="G86" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H86" s="76"/>
       <c r="I86" s="50" t="e">
@@ -20703,7 +20706,7 @@
         <v>#REF!</v>
       </c>
       <c r="J86" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K86" s="53" t="e">
         <f>#REF!</f>
@@ -20719,7 +20722,7 @@
     </row>
     <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="46"/>
       <c r="C87" s="75">
@@ -20736,7 +20739,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="74"/>
       <c r="C88" s="74"/>
@@ -20744,10 +20747,10 @@
       <c r="E88" s="74"/>
       <c r="F88" s="74"/>
       <c r="G88" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H88" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I88" s="74"/>
       <c r="J88" s="74"/>
@@ -20768,7 +20771,7 @@
         <v>3.7639999999999998</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D89" s="53"/>
       <c r="E89" s="53"/>
@@ -21206,7 +21209,7 @@
         <v>3.121</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" s="50">
         <f t="shared" si="36"/>
@@ -21276,7 +21279,7 @@
       <c r="E102" s="53"/>
       <c r="F102" s="50"/>
       <c r="G102" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H102" s="76"/>
       <c r="I102" s="50">
@@ -21284,7 +21287,7 @@
         <v>54.440499999999993</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K102" s="53" t="e">
         <f>#REF!</f>
@@ -21300,7 +21303,7 @@
     </row>
     <row r="103" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B103" s="46"/>
       <c r="C103" s="75">
@@ -21317,7 +21320,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="74"/>
       <c r="C104" s="74"/>
@@ -21325,10 +21328,10 @@
       <c r="E104" s="74"/>
       <c r="F104" s="74"/>
       <c r="G104" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H104" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I104" s="74"/>
       <c r="J104" s="74"/>
@@ -21349,7 +21352,7 @@
         <v>1.9730000000000001</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D105" s="53"/>
       <c r="E105" s="53"/>
@@ -21422,7 +21425,7 @@
         <v>4.2210000000000001</v>
       </c>
       <c r="C107" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D107" s="50">
         <f t="shared" ref="D107:D120" si="47">(B106+B107)/2</f>
@@ -21966,7 +21969,7 @@
         <v>2.3969999999999998</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D120" s="50">
         <f t="shared" si="47"/>
@@ -21998,7 +22001,7 @@
       <c r="E121" s="53"/>
       <c r="F121" s="50"/>
       <c r="G121" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H121" s="76"/>
       <c r="I121" s="50" t="e">
@@ -22006,7 +22009,7 @@
         <v>#REF!</v>
       </c>
       <c r="J121" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K121" s="53" t="e">
         <f>#REF!</f>
@@ -22022,7 +22025,7 @@
     </row>
     <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B122" s="46"/>
       <c r="C122" s="75">
@@ -22039,7 +22042,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123" s="74"/>
       <c r="C123" s="74"/>
@@ -22047,10 +22050,10 @@
       <c r="E123" s="74"/>
       <c r="F123" s="74"/>
       <c r="G123" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H123" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I123" s="74"/>
       <c r="J123" s="74"/>
@@ -22071,7 +22074,7 @@
         <v>3.532</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D124" s="53"/>
       <c r="E124" s="53"/>
@@ -22480,7 +22483,7 @@
         <v>2.7570000000000001</v>
       </c>
       <c r="C135" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D135" s="50">
         <f t="shared" si="52"/>
@@ -22653,7 +22656,7 @@
     </row>
     <row r="142" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B142" s="46"/>
       <c r="C142" s="75">
@@ -22670,7 +22673,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B143" s="74"/>
       <c r="C143" s="74"/>
@@ -22678,10 +22681,10 @@
       <c r="E143" s="74"/>
       <c r="F143" s="74"/>
       <c r="G143" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H143" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I143" s="74"/>
       <c r="J143" s="74"/>
@@ -22702,7 +22705,7 @@
         <v>3.6859999999999999</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D144" s="53"/>
       <c r="E144" s="53"/>
@@ -23098,7 +23101,7 @@
         <v>3.056</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D155" s="50">
         <f t="shared" si="60"/>
@@ -23147,7 +23150,7 @@
       <c r="E156" s="53"/>
       <c r="F156" s="50"/>
       <c r="G156" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H156" s="76"/>
       <c r="I156" s="50" t="e">
@@ -23155,7 +23158,7 @@
         <v>#REF!</v>
       </c>
       <c r="J156" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K156" s="53" t="e">
         <f>#REF!</f>
@@ -23172,7 +23175,7 @@
     <row r="157" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="43"/>
       <c r="B157" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C157" s="46"/>
       <c r="D157" s="75">
@@ -23189,7 +23192,7 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158" s="74"/>
       <c r="C158" s="74"/>
@@ -23197,10 +23200,10 @@
       <c r="E158" s="74"/>
       <c r="F158" s="74"/>
       <c r="G158" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H158" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I158" s="74"/>
       <c r="J158" s="74"/>
@@ -23221,7 +23224,7 @@
         <v>3.1419999999999999</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D159" s="53"/>
       <c r="E159" s="53"/>
@@ -23766,7 +23769,7 @@
         <v>2.8130000000000002</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D173" s="50">
         <f t="shared" si="66"/>
@@ -23855,7 +23858,7 @@
     </row>
     <row r="176" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B176" s="46"/>
       <c r="C176" s="75">
@@ -23872,7 +23875,7 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B177" s="74"/>
       <c r="C177" s="74"/>
@@ -23880,10 +23883,10 @@
       <c r="E177" s="74"/>
       <c r="F177" s="74"/>
       <c r="G177" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H177" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I177" s="74"/>
       <c r="J177" s="74"/>
@@ -23904,7 +23907,7 @@
         <v>3.3410000000000002</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D178" s="53"/>
       <c r="E178" s="53"/>
@@ -24405,7 +24408,7 @@
         <v>3.1040000000000001</v>
       </c>
       <c r="C191" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D191" s="50">
         <f t="shared" si="72"/>
@@ -24480,7 +24483,7 @@
       <c r="E193" s="53"/>
       <c r="F193" s="50"/>
       <c r="G193" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H193" s="76"/>
       <c r="I193" s="53">
@@ -24488,7 +24491,7 @@
         <v>63.375999999999991</v>
       </c>
       <c r="J193" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K193" s="53">
         <f>L192</f>
@@ -24523,7 +24526,7 @@
     </row>
     <row r="195" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B195" s="46"/>
       <c r="C195" s="75">
@@ -24540,7 +24543,7 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B196" s="74"/>
       <c r="C196" s="74"/>
@@ -24548,10 +24551,10 @@
       <c r="E196" s="74"/>
       <c r="F196" s="74"/>
       <c r="G196" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H196" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I196" s="74"/>
       <c r="J196" s="74"/>
@@ -24572,7 +24575,7 @@
         <v>2.3969999999999998</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D197" s="53"/>
       <c r="E197" s="53"/>
@@ -24921,7 +24924,7 @@
         <v>3.2</v>
       </c>
       <c r="C207" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D207" s="50">
         <f t="shared" si="78"/>
@@ -24970,7 +24973,7 @@
         <v>3.1360000000000001</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D208" s="50">
         <f t="shared" si="78"/>
@@ -25143,7 +25146,7 @@
     </row>
     <row r="214" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B214" s="46"/>
       <c r="C214" s="75">
@@ -25160,7 +25163,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B215" s="74"/>
       <c r="C215" s="74"/>
@@ -25168,10 +25171,10 @@
       <c r="E215" s="74"/>
       <c r="F215" s="74"/>
       <c r="G215" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H215" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I215" s="74"/>
       <c r="J215" s="74"/>
@@ -25192,7 +25195,7 @@
         <v>3.5830000000000002</v>
       </c>
       <c r="C216" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D216" s="53"/>
       <c r="E216" s="53"/>
@@ -25216,7 +25219,7 @@
         <v>3.5979999999999999</v>
       </c>
       <c r="C217" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D217" s="50">
         <f>(B216+B217)/2</f>
@@ -25588,7 +25591,7 @@
         <v>3.464</v>
       </c>
       <c r="C227" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D227" s="50">
         <f t="shared" si="84"/>
@@ -25728,7 +25731,7 @@
         <v>2.4550000000000001</v>
       </c>
       <c r="C230" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D230" s="50">
         <f t="shared" si="84"/>
@@ -25774,7 +25777,7 @@
       <c r="E231" s="53"/>
       <c r="F231" s="50"/>
       <c r="G231" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H231" s="76"/>
       <c r="I231" s="53" t="e">
@@ -25782,7 +25785,7 @@
         <v>#REF!</v>
       </c>
       <c r="J231" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K231" s="53" t="e">
         <f>#REF!</f>
@@ -25798,7 +25801,7 @@
     </row>
     <row r="232" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B232" s="46"/>
       <c r="C232" s="75">
@@ -25815,7 +25818,7 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B233" s="74"/>
       <c r="C233" s="74"/>
@@ -25823,10 +25826,10 @@
       <c r="E233" s="74"/>
       <c r="F233" s="74"/>
       <c r="G233" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H233" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I233" s="74"/>
       <c r="J233" s="74"/>
@@ -25847,7 +25850,7 @@
         <v>2.609</v>
       </c>
       <c r="C234" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D234" s="53"/>
       <c r="E234" s="53"/>
@@ -26196,7 +26199,7 @@
         <v>2.7160000000000002</v>
       </c>
       <c r="C244" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D244" s="50">
         <f t="shared" si="90"/>
@@ -26335,7 +26338,7 @@
     </row>
     <row r="248" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B248" s="46"/>
       <c r="C248" s="75">
@@ -26352,7 +26355,7 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B249" s="74"/>
       <c r="C249" s="74"/>
@@ -26360,10 +26363,10 @@
       <c r="E249" s="74"/>
       <c r="F249" s="74"/>
       <c r="G249" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H249" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I249" s="74"/>
       <c r="J249" s="74"/>
@@ -26384,7 +26387,7 @@
         <v>3.0550000000000002</v>
       </c>
       <c r="C250" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D250" s="53"/>
       <c r="E250" s="53"/>
@@ -26408,7 +26411,7 @@
         <v>3.0659999999999998</v>
       </c>
       <c r="C251" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D251" s="50">
         <f>(B250+B251)/2</f>
@@ -26869,7 +26872,7 @@
         <v>3.5070000000000001</v>
       </c>
       <c r="C263" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D263" s="50">
         <f t="shared" si="96"/>
@@ -26963,7 +26966,7 @@
         <v>1.9530000000000001</v>
       </c>
       <c r="C265" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D265" s="50">
         <f t="shared" si="96"/>
@@ -27009,7 +27012,7 @@
       <c r="E266" s="53"/>
       <c r="F266" s="50"/>
       <c r="G266" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H266" s="76"/>
       <c r="I266" s="53" t="e">
@@ -27017,7 +27020,7 @@
         <v>#REF!</v>
       </c>
       <c r="J266" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K266" s="53" t="e">
         <f>#REF!</f>
@@ -27033,7 +27036,7 @@
     </row>
     <row r="267" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B267" s="46"/>
       <c r="C267" s="75">
@@ -27050,7 +27053,7 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B268" s="74"/>
       <c r="C268" s="74"/>
@@ -27058,10 +27061,10 @@
       <c r="E268" s="74"/>
       <c r="F268" s="74"/>
       <c r="G268" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H268" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I268" s="74"/>
       <c r="J268" s="74"/>
@@ -27082,7 +27085,7 @@
         <v>3.0259999999999998</v>
       </c>
       <c r="C269" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D269" s="53"/>
       <c r="E269" s="53"/>
@@ -27601,7 +27604,7 @@
         <v>3.6019999999999999</v>
       </c>
       <c r="C281" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D281" s="50">
         <f t="shared" si="102"/>
@@ -27647,7 +27650,7 @@
         <v>3.589</v>
       </c>
       <c r="C282" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D282" s="50">
         <f t="shared" si="102"/>
@@ -27742,7 +27745,7 @@
       <c r="E285" s="53"/>
       <c r="F285" s="50"/>
       <c r="G285" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H285" s="53"/>
       <c r="I285" s="53" t="e">
@@ -27750,7 +27753,7 @@
         <v>#REF!</v>
       </c>
       <c r="J285" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K285" s="53" t="e">
         <f>#REF!</f>
@@ -27767,7 +27770,7 @@
     </row>
     <row r="286" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B286" s="46"/>
       <c r="C286" s="75">
@@ -27784,7 +27787,7 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B287" s="74"/>
       <c r="C287" s="74"/>
@@ -27792,10 +27795,10 @@
       <c r="E287" s="74"/>
       <c r="F287" s="74"/>
       <c r="G287" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H287" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I287" s="74"/>
       <c r="J287" s="74"/>
@@ -27816,7 +27819,7 @@
         <v>3.1179999999999999</v>
       </c>
       <c r="C288" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D288" s="53"/>
       <c r="E288" s="53"/>
@@ -28371,7 +28374,7 @@
         <v>3.7869999999999999</v>
       </c>
       <c r="C302" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D302" s="50">
         <f t="shared" si="108"/>
@@ -28417,7 +28420,7 @@
         <v>3.78</v>
       </c>
       <c r="C303" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D303" s="50">
         <f t="shared" si="108"/>
@@ -28463,7 +28466,7 @@
       <c r="E304" s="53"/>
       <c r="F304" s="50"/>
       <c r="G304" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H304" s="53"/>
       <c r="I304" s="53" t="e">
@@ -28471,7 +28474,7 @@
         <v>#REF!</v>
       </c>
       <c r="J304" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K304" s="53" t="e">
         <f>#REF!</f>
@@ -28488,7 +28491,7 @@
     </row>
     <row r="305" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B305" s="46"/>
       <c r="C305" s="75">
@@ -28505,7 +28508,7 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B306" s="74"/>
       <c r="C306" s="74"/>
@@ -28513,10 +28516,10 @@
       <c r="E306" s="74"/>
       <c r="F306" s="74"/>
       <c r="G306" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H306" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I306" s="74"/>
       <c r="J306" s="74"/>
@@ -28537,7 +28540,7 @@
         <v>2.5289999999999999</v>
       </c>
       <c r="C307" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D307" s="53"/>
       <c r="E307" s="53"/>
@@ -28593,7 +28596,7 @@
         <v>3.5350000000000001</v>
       </c>
       <c r="C309" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D309" s="50">
         <f t="shared" ref="D309:D322" si="114">(B308+B309)/2</f>
@@ -29138,7 +29141,7 @@
         <v>3.3540000000000001</v>
       </c>
       <c r="C322" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D322" s="50">
         <f t="shared" si="114"/>
@@ -29181,7 +29184,7 @@
     </row>
     <row r="324" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B324" s="46"/>
       <c r="C324" s="75">
@@ -29198,7 +29201,7 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A325" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B325" s="74"/>
       <c r="C325" s="74"/>
@@ -29206,10 +29209,10 @@
       <c r="E325" s="74"/>
       <c r="F325" s="74"/>
       <c r="G325" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H325" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I325" s="74"/>
       <c r="J325" s="74"/>
@@ -29230,7 +29233,7 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="C326" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D326" s="53"/>
       <c r="E326" s="53"/>
@@ -29710,7 +29713,7 @@
         <v>3.3559999999999999</v>
       </c>
       <c r="C338" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D338" s="50">
         <f t="shared" si="120"/>
@@ -29781,7 +29784,7 @@
     </row>
     <row r="340" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B340" s="46"/>
       <c r="C340" s="75">
@@ -29798,7 +29801,7 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B341" s="74"/>
       <c r="C341" s="74"/>
@@ -29806,10 +29809,10 @@
       <c r="E341" s="74"/>
       <c r="F341" s="74"/>
       <c r="G341" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H341" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I341" s="74"/>
       <c r="J341" s="74"/>
@@ -29830,7 +29833,7 @@
         <v>3.6269999999999998</v>
       </c>
       <c r="C342" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D342" s="53"/>
       <c r="E342" s="53"/>
@@ -30341,7 +30344,7 @@
         <v>3.5409999999999999</v>
       </c>
       <c r="C355" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D355" s="50">
         <f t="shared" si="126"/>
@@ -30412,7 +30415,7 @@
     </row>
     <row r="357" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B357" s="46"/>
       <c r="C357" s="75">
@@ -30429,7 +30432,7 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B358" s="74"/>
       <c r="C358" s="74"/>
@@ -30437,10 +30440,10 @@
       <c r="E358" s="74"/>
       <c r="F358" s="74"/>
       <c r="G358" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H358" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I358" s="74"/>
       <c r="J358" s="74"/>
@@ -30461,7 +30464,7 @@
         <v>3.7320000000000002</v>
       </c>
       <c r="C359" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D359" s="53"/>
       <c r="E359" s="53"/>
@@ -30928,7 +30931,7 @@
         <v>2.6459999999999999</v>
       </c>
       <c r="C371" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D371" s="50">
         <f t="shared" si="132"/>
@@ -30961,7 +30964,7 @@
       <c r="E372" s="53"/>
       <c r="F372" s="50"/>
       <c r="G372" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H372" s="53"/>
       <c r="I372" s="53" t="e">
@@ -30969,7 +30972,7 @@
         <v>#REF!</v>
       </c>
       <c r="J372" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K372" s="53" t="e">
         <f>#REF!</f>
@@ -30986,7 +30989,7 @@
     </row>
     <row r="374" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B374" s="46"/>
       <c r="C374" s="75">
@@ -31003,7 +31006,7 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A375" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B375" s="74"/>
       <c r="C375" s="74"/>
@@ -31011,10 +31014,10 @@
       <c r="E375" s="74"/>
       <c r="F375" s="74"/>
       <c r="G375" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H375" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I375" s="74"/>
       <c r="J375" s="74"/>
@@ -31035,7 +31038,7 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="C376" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D376" s="53"/>
       <c r="E376" s="53"/>
@@ -31501,7 +31504,7 @@
         <v>2.681</v>
       </c>
       <c r="C389" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D389" s="50">
         <f t="shared" si="138"/>
@@ -31542,7 +31545,7 @@
     </row>
     <row r="391" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B391" s="46"/>
       <c r="C391" s="75">
@@ -31559,7 +31562,7 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A392" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B392" s="74"/>
       <c r="C392" s="74"/>
@@ -31567,10 +31570,10 @@
       <c r="E392" s="74"/>
       <c r="F392" s="74"/>
       <c r="G392" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H392" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I392" s="74"/>
       <c r="J392" s="74"/>
@@ -31591,7 +31594,7 @@
         <v>3.0510000000000002</v>
       </c>
       <c r="C393" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D393" s="53"/>
       <c r="E393" s="53"/>
@@ -31647,7 +31650,7 @@
         <v>4.3339999999999996</v>
       </c>
       <c r="C395" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D395" s="50">
         <f t="shared" ref="D395:D407" si="144">(B394+B395)/2</f>
@@ -32090,7 +32093,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="C407" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D407" s="50">
         <f t="shared" si="144"/>
@@ -32130,7 +32133,7 @@
     </row>
     <row r="409" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B409" s="46"/>
       <c r="C409" s="75">
@@ -32147,7 +32150,7 @@
     </row>
     <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A410" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B410" s="74"/>
       <c r="C410" s="74"/>
@@ -32155,10 +32158,10 @@
       <c r="E410" s="74"/>
       <c r="F410" s="74"/>
       <c r="G410" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H410" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I410" s="74"/>
       <c r="J410" s="74"/>
@@ -32179,7 +32182,7 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="C411" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D411" s="53"/>
       <c r="E411" s="53"/>
@@ -32672,7 +32675,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="C423" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D423" s="50">
         <f t="shared" si="150"/>
@@ -32785,7 +32788,7 @@
     </row>
     <row r="429" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B429" s="46"/>
       <c r="C429" s="75">
@@ -32802,7 +32805,7 @@
     </row>
     <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B430" s="74"/>
       <c r="C430" s="74"/>
@@ -32810,10 +32813,10 @@
       <c r="E430" s="74"/>
       <c r="F430" s="74"/>
       <c r="G430" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H430" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I430" s="74"/>
       <c r="J430" s="74"/>
@@ -32834,7 +32837,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="C431" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D431" s="53"/>
       <c r="E431" s="53"/>
@@ -33315,7 +33318,7 @@
         <v>1.617</v>
       </c>
       <c r="C443" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D443" s="50">
         <f t="shared" si="156"/>
@@ -33362,7 +33365,7 @@
     </row>
     <row r="445" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B445" s="46"/>
       <c r="C445" s="75">
@@ -33380,7 +33383,7 @@
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B446" s="74"/>
       <c r="C446" s="74"/>
@@ -33388,10 +33391,10 @@
       <c r="E446" s="74"/>
       <c r="F446" s="74"/>
       <c r="G446" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H446" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I446" s="74"/>
       <c r="J446" s="74"/>
@@ -33413,7 +33416,7 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="C447" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D447" s="53"/>
       <c r="E447" s="53"/>
@@ -33470,7 +33473,7 @@
         <v>2.774</v>
       </c>
       <c r="C449" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D449" s="50">
         <f t="shared" ref="D449:D462" si="162">(B448+B449)/2</f>
@@ -34017,7 +34020,7 @@
         <v>3.6040000000000001</v>
       </c>
       <c r="C462" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D462" s="50">
         <f t="shared" si="162"/>
@@ -34339,7 +34342,7 @@
       <c r="E474" s="53"/>
       <c r="F474" s="50"/>
       <c r="G474" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H474" s="53"/>
       <c r="I474" s="53">
@@ -34347,7 +34350,7 @@
         <v>73.982499999999987</v>
       </c>
       <c r="J474" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K474" s="53">
         <f>L472</f>
@@ -37252,18 +37255,63 @@
     <row r="3120" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A268:F268"/>
-    <mergeCell ref="H268:L268"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="H249:L249"/>
-    <mergeCell ref="G266:H266"/>
-    <mergeCell ref="C267:D267"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="A375:F375"/>
+    <mergeCell ref="H375:L375"/>
+    <mergeCell ref="C391:D391"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="H287:L287"/>
+    <mergeCell ref="C305:D305"/>
+    <mergeCell ref="A306:F306"/>
+    <mergeCell ref="H306:L306"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="H325:L325"/>
+    <mergeCell ref="H358:L358"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="H341:L341"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="A358:F358"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="H196:L196"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:F215"/>
+    <mergeCell ref="H215:L215"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="H233:L233"/>
+    <mergeCell ref="H88:L88"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="H104:L104"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="H123:L123"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="H143:L143"/>
+    <mergeCell ref="A392:F392"/>
+    <mergeCell ref="H392:L392"/>
+    <mergeCell ref="C409:D409"/>
+    <mergeCell ref="A410:F410"/>
+    <mergeCell ref="H410:L410"/>
+    <mergeCell ref="C429:D429"/>
+    <mergeCell ref="A430:F430"/>
+    <mergeCell ref="H430:L430"/>
+    <mergeCell ref="C445:D445"/>
+    <mergeCell ref="A446:F446"/>
+    <mergeCell ref="H446:L446"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="H158:L158"/>
+    <mergeCell ref="C176:D176"/>
     <mergeCell ref="A177:F177"/>
     <mergeCell ref="H177:L177"/>
     <mergeCell ref="G193:H193"/>
@@ -37280,63 +37328,18 @@
     <mergeCell ref="H51:L51"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="H158:L158"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C429:D429"/>
-    <mergeCell ref="A430:F430"/>
-    <mergeCell ref="H430:L430"/>
-    <mergeCell ref="C445:D445"/>
-    <mergeCell ref="A446:F446"/>
-    <mergeCell ref="H446:L446"/>
-    <mergeCell ref="A392:F392"/>
-    <mergeCell ref="H392:L392"/>
-    <mergeCell ref="C409:D409"/>
-    <mergeCell ref="A410:F410"/>
-    <mergeCell ref="H410:L410"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="H233:L233"/>
-    <mergeCell ref="H88:L88"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="H123:L123"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="H143:L143"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="H196:L196"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A215:F215"/>
-    <mergeCell ref="H215:L215"/>
-    <mergeCell ref="C391:D391"/>
-    <mergeCell ref="C286:D286"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="H287:L287"/>
-    <mergeCell ref="C305:D305"/>
-    <mergeCell ref="A306:F306"/>
-    <mergeCell ref="H306:L306"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="H325:L325"/>
-    <mergeCell ref="H358:L358"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="A341:F341"/>
-    <mergeCell ref="H341:L341"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="A358:F358"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="A375:F375"/>
-    <mergeCell ref="H375:L375"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A268:F268"/>
+    <mergeCell ref="H268:L268"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="H249:L249"/>
+    <mergeCell ref="G266:H266"/>
+    <mergeCell ref="C267:D267"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -37368,7 +37371,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -37376,10 +37379,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="73" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37390,18 +37393,18 @@
         <v>23</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -37413,8 +37416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37462,7 +37465,7 @@
         <v>17</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>18</v>
@@ -37471,7 +37474,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -37483,13 +37486,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H2" s="3">
         <v>1.9</v>
@@ -37509,7 +37512,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -37521,13 +37524,13 @@
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="3">
         <v>1.9</v>
@@ -37547,7 +37550,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -37559,13 +37562,13 @@
         <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" s="3">
         <v>1.9</v>
@@ -37585,7 +37588,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -37597,13 +37600,13 @@
         <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="3">
         <v>1.9</v>
@@ -37623,7 +37626,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3">
         <v>400</v>
@@ -37635,13 +37638,13 @@
         <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="3">
         <v>1.9</v>
@@ -37661,7 +37664,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3">
         <v>500</v>
@@ -37673,13 +37676,13 @@
         <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H7" s="3">
         <v>1.9</v>
@@ -37699,7 +37702,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -37711,13 +37714,13 @@
         <v>120</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="3">
         <v>1.9</v>
@@ -37737,7 +37740,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="32">
         <v>700</v>
@@ -37749,13 +37752,13 @@
         <v>135</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="3">
         <v>1.9</v>
@@ -37775,7 +37778,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="32">
         <v>800</v>
@@ -37787,13 +37790,13 @@
         <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="3">
         <v>1.9</v>
@@ -37813,7 +37816,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="32">
         <v>900</v>
@@ -37825,13 +37828,13 @@
         <v>173</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H11" s="3">
         <v>1.9</v>
@@ -37851,7 +37854,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="32">
         <v>1000</v>
@@ -37863,13 +37866,13 @@
         <v>191</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="3">
         <v>1.9</v>
@@ -37889,7 +37892,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="32">
         <v>1100</v>
@@ -37901,13 +37904,13 @@
         <v>208</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H13" s="3">
         <v>1.9</v>
@@ -37927,7 +37930,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="33">
         <v>1220</v>
@@ -37939,13 +37942,13 @@
         <v>230</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="3">
         <v>1.9</v>
@@ -37965,7 +37968,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="33">
         <v>1320</v>
@@ -37977,13 +37980,13 @@
         <v>245</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" s="3">
         <v>1.9</v>
@@ -38003,7 +38006,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2">
         <v>1420</v>
@@ -38015,13 +38018,13 @@
         <v>265</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H16" s="3">
         <v>1.9</v>
@@ -38041,7 +38044,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2">
         <v>1520</v>
@@ -38053,13 +38056,13 @@
         <v>282</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" s="3">
         <v>1.9</v>
@@ -38079,7 +38082,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2">
         <v>1625</v>
@@ -38091,13 +38094,13 @@
         <v>303</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H18" s="3">
         <v>1.9</v>
@@ -38117,7 +38120,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2">
         <v>1725</v>
@@ -38129,13 +38132,13 @@
         <v>322</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" s="3">
         <v>1.9</v>
@@ -38155,7 +38158,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2">
         <v>1825</v>
@@ -38167,13 +38170,13 @@
         <v>339</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="3">
         <v>1.9</v>
@@ -38193,7 +38196,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="2">
         <v>1925</v>
@@ -38205,13 +38208,13 @@
         <v>355</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H21" s="3">
         <v>1.9</v>
@@ -38231,7 +38234,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
@@ -38243,13 +38246,13 @@
         <v>371</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H22" s="3">
         <v>1.9</v>
@@ -38269,7 +38272,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2">
         <v>2135</v>
@@ -38281,13 +38284,13 @@
         <v>389</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H23" s="3">
         <v>1.9</v>
@@ -38307,25 +38310,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="35">
         <v>2235</v>
       </c>
       <c r="C24" s="32">
-        <v>593</v>
+        <v>393</v>
       </c>
       <c r="D24" s="32">
         <v>407</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H24" s="3">
         <v>1.9</v>
@@ -38345,7 +38348,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="35">
         <v>2340</v>
@@ -38357,13 +38360,13 @@
         <v>423</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H25" s="3">
         <v>1.9</v>
@@ -38383,7 +38386,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="35">
         <v>2450</v>
@@ -38395,13 +38398,13 @@
         <v>443</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H26" s="3">
         <v>1.9</v>
@@ -38421,7 +38424,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="35">
         <v>2525</v>
@@ -38433,13 +38436,13 @@
         <v>462</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H27" s="3">
         <v>1.9</v>
@@ -38781,13 +38784,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>11</v>
@@ -38804,7 +38807,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="6">
         <v>-1.3</v>
@@ -38819,13 +38822,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -38851,18 +38854,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38870,7 +38873,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38878,7 +38881,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38886,7 +38889,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38894,15 +38897,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38910,7 +38913,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -38918,7 +38921,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -38926,7 +38929,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38934,7 +38937,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -38942,7 +38945,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38950,7 +38953,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -38958,7 +38961,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -38966,7 +38969,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -38974,7 +38977,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -38982,7 +38985,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38990,7 +38993,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -38998,7 +39001,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39006,7 +39009,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39014,7 +39017,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39022,7 +39025,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -39030,7 +39033,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -39038,7 +39041,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -39064,82 +39067,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -39176,18 +39179,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39195,7 +39198,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39203,7 +39206,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39211,7 +39214,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39219,7 +39222,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -39227,7 +39230,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -39235,7 +39238,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -39243,7 +39246,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39251,10 +39254,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -39262,7 +39265,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39270,7 +39273,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39278,7 +39281,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39286,7 +39289,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -39294,31 +39297,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39326,7 +39329,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39334,7 +39337,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -39342,15 +39345,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39358,7 +39361,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -39366,7 +39369,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39374,7 +39377,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39382,7 +39385,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39390,7 +39393,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39398,7 +39401,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
